--- a/output/damage/BRN_osm_tc_damage_1.xlsx
+++ b/output/damage/BRN_osm_tc_damage_1.xlsx
@@ -485,13 +485,13 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>49389.31281858461</v>
+        <v>330525.3442773748</v>
       </c>
       <c r="F2" t="n">
-        <v>37041.98461393846</v>
+        <v>247894.0082080311</v>
       </c>
       <c r="G2" t="n">
-        <v>61736.64102323077</v>
+        <v>413156.6803467185</v>
       </c>
     </row>
     <row r="3">
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>30511.61991903672</v>
+        <v>204191.2126869115</v>
       </c>
       <c r="F3" t="n">
-        <v>22883.71493927754</v>
+        <v>153143.4095151837</v>
       </c>
       <c r="G3" t="n">
-        <v>38139.5248987959</v>
+        <v>255239.0158586395</v>
       </c>
     </row>
     <row r="4">
@@ -543,13 +543,13 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>16463.10427286154</v>
+        <v>110175.1147591249</v>
       </c>
       <c r="F4" t="n">
-        <v>12347.32820464615</v>
+        <v>82631.3360693437</v>
       </c>
       <c r="G4" t="n">
-        <v>20578.88034107692</v>
+        <v>137718.8934489062</v>
       </c>
     </row>
     <row r="5">
@@ -572,13 +572,13 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>10371.75569190277</v>
+        <v>69410.32229824872</v>
       </c>
       <c r="F5" t="n">
-        <v>7778.816768927077</v>
+        <v>52057.74172368654</v>
       </c>
       <c r="G5" t="n">
-        <v>12964.69461487846</v>
+        <v>86762.90287281088</v>
       </c>
     </row>
     <row r="6">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>8725.445264616616</v>
+        <v>58392.81082233622</v>
       </c>
       <c r="F6" t="n">
-        <v>6544.083948462461</v>
+        <v>43794.60811675217</v>
       </c>
       <c r="G6" t="n">
-        <v>10906.80658077077</v>
+        <v>72991.01352792027</v>
       </c>
     </row>
     <row r="7">
@@ -630,13 +630,13 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5871.840523987282</v>
+        <v>39295.79093075456</v>
       </c>
       <c r="F7" t="n">
-        <v>4403.880392990462</v>
+        <v>29471.84319806592</v>
       </c>
       <c r="G7" t="n">
-        <v>7339.800654984102</v>
+        <v>49119.7386634432</v>
       </c>
     </row>
     <row r="8">
@@ -659,13 +659,13 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>49396.7337886895</v>
+        <v>261593.4500779796</v>
       </c>
       <c r="F8" t="n">
-        <v>37047.55034151713</v>
+        <v>196195.0875584847</v>
       </c>
       <c r="G8" t="n">
-        <v>61745.91723586187</v>
+        <v>326991.8125974745</v>
       </c>
     </row>
     <row r="9">
@@ -688,13 +688,13 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>30516.20442945707</v>
+        <v>161606.6202703963</v>
       </c>
       <c r="F9" t="n">
-        <v>22887.1533220928</v>
+        <v>121204.9652027972</v>
       </c>
       <c r="G9" t="n">
-        <v>38145.25553682134</v>
+        <v>202008.2753379954</v>
       </c>
     </row>
     <row r="10">
@@ -717,13 +717,13 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>16465.57792956317</v>
+        <v>87197.81669265988</v>
       </c>
       <c r="F10" t="n">
-        <v>12349.18344717237</v>
+        <v>65398.36251949489</v>
       </c>
       <c r="G10" t="n">
-        <v>20581.97241195396</v>
+        <v>108997.2708658248</v>
       </c>
     </row>
     <row r="11">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>10373.3140956248</v>
+        <v>54934.62451637572</v>
       </c>
       <c r="F11" t="n">
-        <v>7779.985571718596</v>
+        <v>41200.96838728179</v>
       </c>
       <c r="G11" t="n">
-        <v>12966.64261953099</v>
+        <v>68668.28064546964</v>
       </c>
     </row>
     <row r="12">
@@ -775,13 +775,13 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>8726.756302668478</v>
+        <v>46214.84284710973</v>
       </c>
       <c r="F12" t="n">
-        <v>6545.067227001358</v>
+        <v>34661.1321353323</v>
       </c>
       <c r="G12" t="n">
-        <v>10908.4453783356</v>
+        <v>57768.55355888716</v>
       </c>
     </row>
     <row r="13">
@@ -804,13 +804,13 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>5872.72279487753</v>
+        <v>31100.55462038202</v>
       </c>
       <c r="F13" t="n">
-        <v>4404.542096158148</v>
+        <v>23325.41596528651</v>
       </c>
       <c r="G13" t="n">
-        <v>7340.903493596911</v>
+        <v>38875.69327547752</v>
       </c>
     </row>
     <row r="14">
@@ -833,13 +833,13 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>49395.07981485825</v>
+        <v>180739.0530072562</v>
       </c>
       <c r="F14" t="n">
-        <v>37046.30986114369</v>
+        <v>135554.2897554421</v>
       </c>
       <c r="G14" t="n">
-        <v>61743.84976857282</v>
+        <v>225923.8162590702</v>
       </c>
     </row>
     <row r="15">
@@ -862,13 +862,13 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>30515.1826411791</v>
+        <v>111656.5705244827</v>
       </c>
       <c r="F15" t="n">
-        <v>22886.38698088433</v>
+        <v>83742.42789336202</v>
       </c>
       <c r="G15" t="n">
-        <v>38143.97830147388</v>
+        <v>139570.7131556034</v>
       </c>
     </row>
     <row r="16">
@@ -891,13 +891,13 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>16465.02660495275</v>
+        <v>60246.35100241873</v>
       </c>
       <c r="F16" t="n">
-        <v>12348.76995371456</v>
+        <v>45184.76325181405</v>
       </c>
       <c r="G16" t="n">
-        <v>20581.28325619094</v>
+        <v>75307.93875302341</v>
       </c>
     </row>
     <row r="17">
@@ -920,13 +920,13 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>10372.96676112023</v>
+        <v>37955.20113152381</v>
       </c>
       <c r="F17" t="n">
-        <v>7779.725070840176</v>
+        <v>28466.40084864285</v>
       </c>
       <c r="G17" t="n">
-        <v>12966.20845140029</v>
+        <v>47444.00141440475</v>
       </c>
     </row>
     <row r="18">
@@ -949,13 +949,13 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>8726.464100624959</v>
+        <v>31930.56603128192</v>
       </c>
       <c r="F18" t="n">
-        <v>6544.848075468719</v>
+        <v>23947.92452346144</v>
       </c>
       <c r="G18" t="n">
-        <v>10908.0801257812</v>
+        <v>39913.2075391024</v>
       </c>
     </row>
     <row r="19">
@@ -978,13 +978,13 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5872.526155766482</v>
+        <v>21487.86519086268</v>
       </c>
       <c r="F19" t="n">
-        <v>4404.394616824862</v>
+        <v>16115.89889314701</v>
       </c>
       <c r="G19" t="n">
-        <v>7340.657694708102</v>
+        <v>26859.83148857835</v>
       </c>
     </row>
     <row r="20">
@@ -1007,13 +1007,13 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>49396.52025061573</v>
+        <v>124701.7175013459</v>
       </c>
       <c r="F20" t="n">
-        <v>37047.3901879618</v>
+        <v>93526.28812600943</v>
       </c>
       <c r="G20" t="n">
-        <v>61745.65031326967</v>
+        <v>155877.1468766824</v>
       </c>
     </row>
     <row r="21">
@@ -1036,13 +1036,13 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>30516.07251038039</v>
+        <v>77037.94992305369</v>
       </c>
       <c r="F21" t="n">
-        <v>22887.05438278529</v>
+        <v>57778.46244229027</v>
       </c>
       <c r="G21" t="n">
-        <v>38145.09063797548</v>
+        <v>96297.43740381712</v>
       </c>
     </row>
     <row r="22">
@@ -1065,13 +1065,13 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>16465.50675020524</v>
+        <v>41567.2391671153</v>
       </c>
       <c r="F22" t="n">
-        <v>12349.13006265393</v>
+        <v>31175.42937533648</v>
       </c>
       <c r="G22" t="n">
-        <v>20581.88343775655</v>
+        <v>51959.04895889414</v>
       </c>
     </row>
     <row r="23">
@@ -1094,13 +1094,13 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>10373.2692526293</v>
+        <v>26187.36067528265</v>
       </c>
       <c r="F23" t="n">
-        <v>7779.951939471977</v>
+        <v>19640.52050646198</v>
       </c>
       <c r="G23" t="n">
-        <v>12966.58656578663</v>
+        <v>32734.2008441033</v>
       </c>
     </row>
     <row r="24">
@@ -1123,13 +1123,13 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>8726.718577608779</v>
+        <v>22030.63675857111</v>
       </c>
       <c r="F24" t="n">
-        <v>6545.038933206584</v>
+        <v>16522.97756892833</v>
       </c>
       <c r="G24" t="n">
-        <v>10908.39822201097</v>
+        <v>27538.29594821389</v>
       </c>
     </row>
     <row r="25">
@@ -1152,13 +1152,13 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>5872.697407573202</v>
+        <v>14825.64863627113</v>
       </c>
       <c r="F25" t="n">
-        <v>4404.523055679903</v>
+        <v>11119.23647720334</v>
       </c>
       <c r="G25" t="n">
-        <v>7340.871759466504</v>
+        <v>18532.0607953389</v>
       </c>
     </row>
     <row r="26">
@@ -1181,13 +1181,13 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>49391.4832885759</v>
+        <v>102173.2622601401</v>
       </c>
       <c r="F26" t="n">
-        <v>37043.61246643192</v>
+        <v>76629.94669510507</v>
       </c>
       <c r="G26" t="n">
-        <v>61739.35411071987</v>
+        <v>127716.5778251751</v>
       </c>
     </row>
     <row r="27">
@@ -1210,13 +1210,13 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>30512.96078716466</v>
+        <v>63120.37090737543</v>
       </c>
       <c r="F27" t="n">
-        <v>22884.7205903735</v>
+        <v>47340.27818053158</v>
       </c>
       <c r="G27" t="n">
-        <v>38141.20098395584</v>
+        <v>78900.4636342193</v>
       </c>
     </row>
     <row r="28">
@@ -1239,13 +1239,13 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>16463.82776285863</v>
+        <v>34057.75408671336</v>
       </c>
       <c r="F28" t="n">
-        <v>12347.87082214397</v>
+        <v>25543.31556503502</v>
       </c>
       <c r="G28" t="n">
-        <v>20579.78470357329</v>
+        <v>42572.19260839171</v>
       </c>
     </row>
     <row r="29">
@@ -1268,13 +1268,13 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>10372.21149060094</v>
+        <v>21456.38507462942</v>
       </c>
       <c r="F29" t="n">
-        <v>7779.158617950704</v>
+        <v>16092.28880597206</v>
       </c>
       <c r="G29" t="n">
-        <v>12965.26436325117</v>
+        <v>26820.48134328677</v>
       </c>
     </row>
     <row r="30">
@@ -1297,13 +1297,13 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>8725.828714315076</v>
+        <v>18050.60966595808</v>
       </c>
       <c r="F30" t="n">
-        <v>6544.371535736307</v>
+        <v>13537.95724946856</v>
       </c>
       <c r="G30" t="n">
-        <v>10907.28589289384</v>
+        <v>22563.2620824476</v>
       </c>
     </row>
     <row r="31">
@@ -1326,13 +1326,13 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>5872.098568752912</v>
+        <v>12147.2656242611</v>
       </c>
       <c r="F31" t="n">
-        <v>4404.073926564684</v>
+        <v>9110.449218195825</v>
       </c>
       <c r="G31" t="n">
-        <v>7340.12321094114</v>
+        <v>15184.08203032637</v>
       </c>
     </row>
     <row r="32">
@@ -1355,13 +1355,13 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>46655.21834783145</v>
+        <v>273479.0013662357</v>
       </c>
       <c r="F32" t="n">
-        <v>34991.41376087359</v>
+        <v>205109.2510246768</v>
       </c>
       <c r="G32" t="n">
-        <v>58319.02293478932</v>
+        <v>341848.7517077947</v>
       </c>
     </row>
     <row r="33">
@@ -1384,13 +1384,13 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>28822.55711266032</v>
+        <v>168949.249732919</v>
       </c>
       <c r="F33" t="n">
-        <v>21616.91783449524</v>
+        <v>126711.9372996892</v>
       </c>
       <c r="G33" t="n">
-        <v>36028.1963908254</v>
+        <v>211186.5621661487</v>
       </c>
     </row>
     <row r="34">
@@ -1413,13 +1413,13 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>15551.73944927715</v>
+        <v>91159.66712207858</v>
       </c>
       <c r="F34" t="n">
-        <v>11663.80458695786</v>
+        <v>68369.75034155893</v>
       </c>
       <c r="G34" t="n">
-        <v>19439.67431159644</v>
+        <v>113949.5839025982</v>
       </c>
     </row>
     <row r="35">
@@ -1442,13 +1442,13 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>9797.595853044606</v>
+        <v>57430.59028690951</v>
       </c>
       <c r="F35" t="n">
-        <v>7348.196889783454</v>
+        <v>43072.94271518213</v>
       </c>
       <c r="G35" t="n">
-        <v>12246.99481630576</v>
+        <v>71788.23785863687</v>
       </c>
     </row>
     <row r="36">
@@ -1471,13 +1471,13 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>8242.42190811689</v>
+        <v>48314.62357470164</v>
       </c>
       <c r="F36" t="n">
-        <v>6181.816431087668</v>
+        <v>36235.96768102624</v>
       </c>
       <c r="G36" t="n">
-        <v>10303.02738514611</v>
+        <v>60393.27946837706</v>
       </c>
     </row>
     <row r="37">
@@ -1500,13 +1500,13 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>5546.787070242184</v>
+        <v>32513.61460687469</v>
       </c>
       <c r="F37" t="n">
-        <v>4160.090302681639</v>
+        <v>24385.21095515602</v>
       </c>
       <c r="G37" t="n">
-        <v>6933.483837802731</v>
+        <v>40642.01825859337</v>
       </c>
     </row>
     <row r="38">
@@ -1529,13 +1529,13 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>43488.88748907444</v>
+        <v>112798.6818919979</v>
       </c>
       <c r="F38" t="n">
-        <v>32616.66561680584</v>
+        <v>84599.01141899846</v>
       </c>
       <c r="G38" t="n">
-        <v>54361.10936134306</v>
+        <v>140998.3523649974</v>
       </c>
     </row>
     <row r="39">
@@ -1558,13 +1558,13 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>26866.46827102821</v>
+        <v>69684.51903550095</v>
       </c>
       <c r="F39" t="n">
-        <v>20149.85120327116</v>
+        <v>52263.38927662571</v>
       </c>
       <c r="G39" t="n">
-        <v>33583.08533878527</v>
+        <v>87105.64879437619</v>
       </c>
     </row>
     <row r="40">
@@ -1587,13 +1587,13 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>14496.29582969148</v>
+        <v>37599.56063066598</v>
       </c>
       <c r="F40" t="n">
-        <v>10872.22187226861</v>
+        <v>28199.67047299949</v>
       </c>
       <c r="G40" t="n">
-        <v>18120.36978711435</v>
+        <v>46999.45078833248</v>
       </c>
     </row>
     <row r="41">
@@ -1616,13 +1616,13 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>9132.666372705635</v>
+        <v>23687.72319731957</v>
       </c>
       <c r="F41" t="n">
-        <v>6849.499779529226</v>
+        <v>17765.79239798968</v>
       </c>
       <c r="G41" t="n">
-        <v>11415.83296588204</v>
+        <v>29609.65399664946</v>
       </c>
     </row>
     <row r="42">
@@ -1645,13 +1645,13 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>7683.036789736487</v>
+        <v>19927.76713425297</v>
       </c>
       <c r="F42" t="n">
-        <v>5762.277592302365</v>
+        <v>14945.82535068973</v>
       </c>
       <c r="G42" t="n">
-        <v>9603.795987170606</v>
+        <v>24909.70891781621</v>
       </c>
     </row>
     <row r="43">
@@ -1674,13 +1674,13 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>5170.345512589963</v>
+        <v>13410.50995827087</v>
       </c>
       <c r="F43" t="n">
-        <v>3877.759134442472</v>
+        <v>10057.88246870315</v>
       </c>
       <c r="G43" t="n">
-        <v>6462.931890737453</v>
+        <v>16763.13744783858</v>
       </c>
     </row>
     <row r="44">
@@ -1703,13 +1703,13 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>49389.31281858461</v>
+        <v>329639.2289411961</v>
       </c>
       <c r="F44" t="n">
-        <v>37041.98461393846</v>
+        <v>247229.4217058971</v>
       </c>
       <c r="G44" t="n">
-        <v>61736.64102323077</v>
+        <v>412049.0361764951</v>
       </c>
     </row>
     <row r="45">
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>30511.61991903672</v>
+        <v>203643.7903236722</v>
       </c>
       <c r="F45" t="n">
-        <v>22883.71493927754</v>
+        <v>152732.8427427542</v>
       </c>
       <c r="G45" t="n">
-        <v>38139.5248987959</v>
+        <v>254554.7379045903</v>
       </c>
     </row>
     <row r="46">
@@ -1761,13 +1761,13 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>16463.10427286154</v>
+        <v>109879.7429803987</v>
       </c>
       <c r="F46" t="n">
-        <v>12347.32820464615</v>
+        <v>82409.80723529901</v>
       </c>
       <c r="G46" t="n">
-        <v>20578.88034107692</v>
+        <v>137349.6787254984</v>
       </c>
     </row>
     <row r="47">
@@ -1790,13 +1790,13 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>10371.75569190277</v>
+        <v>69224.23807765119</v>
       </c>
       <c r="F47" t="n">
-        <v>7778.816768927077</v>
+        <v>51918.17855823839</v>
       </c>
       <c r="G47" t="n">
-        <v>12964.69461487846</v>
+        <v>86530.29759706397</v>
       </c>
     </row>
     <row r="48">
@@ -1819,13 +1819,13 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>8725.445264616616</v>
+        <v>58236.2637796113</v>
       </c>
       <c r="F48" t="n">
-        <v>6544.083948462461</v>
+        <v>43677.19783470849</v>
       </c>
       <c r="G48" t="n">
-        <v>10906.80658077077</v>
+        <v>72795.32972451413</v>
       </c>
     </row>
     <row r="49">
@@ -1848,13 +1848,13 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>5871.840523987282</v>
+        <v>39190.44166300887</v>
       </c>
       <c r="F49" t="n">
-        <v>4403.880392990462</v>
+        <v>29392.83124725665</v>
       </c>
       <c r="G49" t="n">
-        <v>7339.800654984102</v>
+        <v>48988.05207876107</v>
       </c>
     </row>
     <row r="50">
@@ -1877,13 +1877,13 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>49396.7337886895</v>
+        <v>260671.4159691066</v>
       </c>
       <c r="F50" t="n">
-        <v>37047.55034151713</v>
+        <v>195503.5619768299</v>
       </c>
       <c r="G50" t="n">
-        <v>61745.91723586187</v>
+        <v>325839.2699613832</v>
       </c>
     </row>
     <row r="51">
@@ -1906,13 +1906,13 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>30516.20442945707</v>
+        <v>161037.0080875814</v>
       </c>
       <c r="F51" t="n">
-        <v>22887.1533220928</v>
+        <v>120777.756065686</v>
       </c>
       <c r="G51" t="n">
-        <v>38145.25553682134</v>
+        <v>201296.2601094767</v>
       </c>
     </row>
     <row r="52">
@@ -1935,13 +1935,13 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>16465.57792956317</v>
+        <v>86890.47198970219</v>
       </c>
       <c r="F52" t="n">
-        <v>12349.18344717237</v>
+        <v>65167.85399227664</v>
       </c>
       <c r="G52" t="n">
-        <v>20581.97241195396</v>
+        <v>108613.0899871277</v>
       </c>
     </row>
     <row r="53">
@@ -1964,13 +1964,13 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>10373.3140956248</v>
+        <v>54740.99735351238</v>
       </c>
       <c r="F53" t="n">
-        <v>7779.985571718596</v>
+        <v>41055.74801513429</v>
       </c>
       <c r="G53" t="n">
-        <v>12966.64261953099</v>
+        <v>68426.24669189047</v>
       </c>
     </row>
     <row r="54">
@@ -1993,13 +1993,13 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>8726.756302668478</v>
+        <v>46051.95015454215</v>
       </c>
       <c r="F54" t="n">
-        <v>6545.067227001358</v>
+        <v>34538.96261590662</v>
       </c>
       <c r="G54" t="n">
-        <v>10908.4453783356</v>
+        <v>57564.9376931777</v>
       </c>
     </row>
     <row r="55">
@@ -2022,13 +2022,13 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>5872.72279487753</v>
+        <v>30990.93500966045</v>
       </c>
       <c r="F55" t="n">
-        <v>4404.542096158148</v>
+        <v>23243.20125724534</v>
       </c>
       <c r="G55" t="n">
-        <v>7340.903493596911</v>
+        <v>38738.66876207555</v>
       </c>
     </row>
     <row r="56">
@@ -2051,13 +2051,13 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>49395.07981485825</v>
+        <v>179995.1783744025</v>
       </c>
       <c r="F56" t="n">
-        <v>37046.30986114369</v>
+        <v>134996.3837808019</v>
       </c>
       <c r="G56" t="n">
-        <v>61743.84976857282</v>
+        <v>224993.9729680031</v>
       </c>
     </row>
     <row r="57">
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>30515.1826411791</v>
+        <v>111197.0213068531</v>
       </c>
       <c r="F57" t="n">
-        <v>22886.38698088433</v>
+        <v>83397.76598013981</v>
       </c>
       <c r="G57" t="n">
-        <v>38143.97830147388</v>
+        <v>138996.2766335664</v>
       </c>
     </row>
     <row r="58">
@@ -2109,13 +2109,13 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>16465.02660495275</v>
+        <v>59998.3927914675</v>
       </c>
       <c r="F58" t="n">
-        <v>12348.76995371456</v>
+        <v>44998.79459360061</v>
       </c>
       <c r="G58" t="n">
-        <v>20581.28325619094</v>
+        <v>74997.99098933437</v>
       </c>
     </row>
     <row r="59">
@@ -2138,13 +2138,13 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>10372.96676112023</v>
+        <v>37798.98745862452</v>
       </c>
       <c r="F59" t="n">
-        <v>7779.725070840176</v>
+        <v>28349.2405939684</v>
       </c>
       <c r="G59" t="n">
-        <v>12966.20845140029</v>
+        <v>47248.73432328065</v>
       </c>
     </row>
     <row r="60">
@@ -2167,13 +2167,13 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>8726.464100624959</v>
+        <v>31799.14817947777</v>
       </c>
       <c r="F60" t="n">
-        <v>6544.848075468719</v>
+        <v>23849.36113460833</v>
       </c>
       <c r="G60" t="n">
-        <v>10908.0801257812</v>
+        <v>39748.93522434721</v>
       </c>
     </row>
     <row r="61">
@@ -2196,13 +2196,13 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>5872.526155766482</v>
+        <v>21399.42676229007</v>
       </c>
       <c r="F61" t="n">
-        <v>4404.394616824862</v>
+        <v>16049.57007171756</v>
       </c>
       <c r="G61" t="n">
-        <v>7340.657694708102</v>
+        <v>26749.28345286259</v>
       </c>
     </row>
     <row r="62">
@@ -2225,13 +2225,13 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>49396.52025061573</v>
+        <v>124147.3731013094</v>
       </c>
       <c r="F62" t="n">
-        <v>37047.3901879618</v>
+        <v>93110.52982598204</v>
       </c>
       <c r="G62" t="n">
-        <v>61745.65031326967</v>
+        <v>155184.2163766368</v>
       </c>
     </row>
     <row r="63">
@@ -2254,13 +2254,13 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>30516.07251038039</v>
+        <v>76695.48827147558</v>
       </c>
       <c r="F63" t="n">
-        <v>22887.05438278529</v>
+        <v>57521.61620360668</v>
       </c>
       <c r="G63" t="n">
-        <v>38145.09063797548</v>
+        <v>95869.36033934448</v>
       </c>
     </row>
     <row r="64">
@@ -2283,13 +2283,13 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>16465.50675020524</v>
+        <v>41382.45770043647</v>
       </c>
       <c r="F64" t="n">
-        <v>12349.13006265393</v>
+        <v>31036.84327532735</v>
       </c>
       <c r="G64" t="n">
-        <v>20581.88343775655</v>
+        <v>51728.07212554559</v>
       </c>
     </row>
     <row r="65">
@@ -2312,13 +2312,13 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>10373.2692526293</v>
+        <v>26070.94835127498</v>
       </c>
       <c r="F65" t="n">
-        <v>7779.951939471977</v>
+        <v>19553.21126345623</v>
       </c>
       <c r="G65" t="n">
-        <v>12966.58656578663</v>
+        <v>32588.68543909372</v>
       </c>
     </row>
     <row r="66">
@@ -2341,13 +2341,13 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>8726.718577608779</v>
+        <v>21932.70258123132</v>
       </c>
       <c r="F66" t="n">
-        <v>6545.038933206584</v>
+        <v>16449.5269359235</v>
       </c>
       <c r="G66" t="n">
-        <v>10908.39822201097</v>
+        <v>27415.87822653916</v>
       </c>
     </row>
     <row r="67">
@@ -2370,13 +2370,13 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>5872.697407573202</v>
+        <v>14759.74324648901</v>
       </c>
       <c r="F67" t="n">
-        <v>4404.523055679903</v>
+        <v>11069.80743486675</v>
       </c>
       <c r="G67" t="n">
-        <v>7340.871759466504</v>
+        <v>18449.67905811125</v>
       </c>
     </row>
     <row r="68">
@@ -2399,13 +2399,13 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>49391.4832885759</v>
+        <v>101680.5899851519</v>
       </c>
       <c r="F68" t="n">
-        <v>37043.61246643192</v>
+        <v>76260.44248886398</v>
       </c>
       <c r="G68" t="n">
-        <v>61739.35411071987</v>
+        <v>127100.73748144</v>
       </c>
     </row>
     <row r="69">
@@ -2428,13 +2428,13 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>30512.96078716466</v>
+        <v>62816.00892416055</v>
       </c>
       <c r="F69" t="n">
-        <v>22884.7205903735</v>
+        <v>47112.00669312041</v>
       </c>
       <c r="G69" t="n">
-        <v>38141.20098395584</v>
+        <v>78520.01115520069</v>
       </c>
     </row>
     <row r="70">
@@ -2457,13 +2457,13 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>16463.82776285863</v>
+        <v>33893.52999505065</v>
       </c>
       <c r="F70" t="n">
-        <v>12347.87082214397</v>
+        <v>25420.14749628799</v>
       </c>
       <c r="G70" t="n">
-        <v>20579.78470357329</v>
+        <v>42366.91249381332</v>
       </c>
     </row>
     <row r="71">
@@ -2486,13 +2486,13 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>10372.21149060094</v>
+        <v>21352.92389688191</v>
       </c>
       <c r="F71" t="n">
-        <v>7779.158617950704</v>
+        <v>16014.69292266143</v>
       </c>
       <c r="G71" t="n">
-        <v>12965.26436325117</v>
+        <v>26691.15487110239</v>
       </c>
     </row>
     <row r="72">
@@ -2515,13 +2515,13 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>8725.828714315076</v>
+        <v>17963.57089737685</v>
       </c>
       <c r="F72" t="n">
-        <v>6544.371535736307</v>
+        <v>13472.67817303263</v>
       </c>
       <c r="G72" t="n">
-        <v>10907.28589289384</v>
+        <v>22454.46362172106</v>
       </c>
     </row>
     <row r="73">
@@ -2544,13 +2544,13 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>5872.098568752912</v>
+        <v>12088.6923649014</v>
       </c>
       <c r="F73" t="n">
-        <v>4404.073926564684</v>
+        <v>9066.519273676051</v>
       </c>
       <c r="G73" t="n">
-        <v>7340.12321094114</v>
+        <v>15110.86545612675</v>
       </c>
     </row>
     <row r="74">
@@ -2573,13 +2573,13 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>46655.21834783145</v>
+        <v>272931.4824522329</v>
       </c>
       <c r="F74" t="n">
-        <v>34991.41376087359</v>
+        <v>204698.6118391747</v>
       </c>
       <c r="G74" t="n">
-        <v>58319.02293478932</v>
+        <v>341164.3530652911</v>
       </c>
     </row>
     <row r="75">
@@ -2602,13 +2602,13 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>28822.55711266032</v>
+        <v>168611.004714935</v>
       </c>
       <c r="F75" t="n">
-        <v>21616.91783449524</v>
+        <v>126458.2535362013</v>
       </c>
       <c r="G75" t="n">
-        <v>36028.1963908254</v>
+        <v>210763.7558936688</v>
       </c>
     </row>
     <row r="76">
@@ -2631,13 +2631,13 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>15551.73944927715</v>
+        <v>90977.16081741097</v>
       </c>
       <c r="F76" t="n">
-        <v>11663.80458695786</v>
+        <v>68232.87061305823</v>
       </c>
       <c r="G76" t="n">
-        <v>19439.67431159644</v>
+        <v>113721.4510217637</v>
       </c>
     </row>
     <row r="77">
@@ -2660,13 +2660,13 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>9797.595853044606</v>
+        <v>57315.61131496893</v>
       </c>
       <c r="F77" t="n">
-        <v>7348.196889783454</v>
+        <v>42986.70848622669</v>
       </c>
       <c r="G77" t="n">
-        <v>12246.99481630576</v>
+        <v>71644.51414371115</v>
       </c>
     </row>
     <row r="78">
@@ -2689,13 +2689,13 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>8242.42190811689</v>
+        <v>48217.89523322782</v>
       </c>
       <c r="F78" t="n">
-        <v>6181.816431087668</v>
+        <v>36163.42142492087</v>
       </c>
       <c r="G78" t="n">
-        <v>10303.02738514611</v>
+        <v>60272.36904153477</v>
       </c>
     </row>
     <row r="79">
@@ -2718,13 +2718,13 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>5546.787070242184</v>
+        <v>32448.52069154325</v>
       </c>
       <c r="F79" t="n">
-        <v>4160.090302681639</v>
+        <v>24336.39051865743</v>
       </c>
       <c r="G79" t="n">
-        <v>6933.483837802731</v>
+        <v>40560.65086442906</v>
       </c>
     </row>
     <row r="80">
@@ -2747,13 +2747,13 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>43488.88748907444</v>
+        <v>112753.1861232784</v>
       </c>
       <c r="F80" t="n">
-        <v>32616.66561680584</v>
+        <v>84564.88959245881</v>
       </c>
       <c r="G80" t="n">
-        <v>54361.10936134306</v>
+        <v>140941.482654098</v>
       </c>
     </row>
     <row r="81">
@@ -2776,13 +2776,13 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>26866.46827102821</v>
+        <v>69656.41276060311</v>
       </c>
       <c r="F81" t="n">
-        <v>20149.85120327116</v>
+        <v>52242.30957045233</v>
       </c>
       <c r="G81" t="n">
-        <v>33583.08533878527</v>
+        <v>87070.51595075389</v>
       </c>
     </row>
     <row r="82">
@@ -2805,13 +2805,13 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>14496.29582969148</v>
+        <v>37584.39537442614</v>
       </c>
       <c r="F82" t="n">
-        <v>10872.22187226861</v>
+        <v>28188.2965308196</v>
       </c>
       <c r="G82" t="n">
-        <v>18120.36978711435</v>
+        <v>46980.49421803268</v>
       </c>
     </row>
     <row r="83">
@@ -2834,13 +2834,13 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>9132.666372705635</v>
+        <v>23678.16908588847</v>
       </c>
       <c r="F83" t="n">
-        <v>6849.499779529226</v>
+        <v>17758.62681441635</v>
       </c>
       <c r="G83" t="n">
-        <v>11415.83296588204</v>
+        <v>29597.71135736058</v>
       </c>
     </row>
     <row r="84">
@@ -2863,13 +2863,13 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>7683.036789736487</v>
+        <v>19919.72954844585</v>
       </c>
       <c r="F84" t="n">
-        <v>5762.277592302365</v>
+        <v>14939.79716133439</v>
       </c>
       <c r="G84" t="n">
-        <v>9603.795987170606</v>
+        <v>24899.66193555732</v>
       </c>
     </row>
     <row r="85">
@@ -2892,13 +2892,13 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>5170.345512589963</v>
+        <v>13405.10101687866</v>
       </c>
       <c r="F85" t="n">
-        <v>3877.759134442472</v>
+        <v>10053.82576265899</v>
       </c>
       <c r="G85" t="n">
-        <v>6462.931890737453</v>
+        <v>16756.37627109832</v>
       </c>
     </row>
     <row r="86">
@@ -2921,13 +2921,13 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>49389.31281858461</v>
+        <v>306060.0506711853</v>
       </c>
       <c r="F86" t="n">
-        <v>37041.98461393846</v>
+        <v>229545.038003389</v>
       </c>
       <c r="G86" t="n">
-        <v>61736.64102323077</v>
+        <v>382575.0633389817</v>
       </c>
     </row>
     <row r="87">
@@ -2950,13 +2950,13 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>30511.61991903672</v>
+        <v>189077.0979701989</v>
       </c>
       <c r="F87" t="n">
-        <v>22883.71493927754</v>
+        <v>141807.8234776492</v>
       </c>
       <c r="G87" t="n">
-        <v>38139.5248987959</v>
+        <v>236346.3724627487</v>
       </c>
     </row>
     <row r="88">
@@ -2979,13 +2979,13 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>16463.10427286154</v>
+        <v>102020.0168903951</v>
       </c>
       <c r="F88" t="n">
-        <v>12347.32820464615</v>
+        <v>76515.01266779633</v>
       </c>
       <c r="G88" t="n">
-        <v>20578.88034107692</v>
+        <v>127525.0211129939</v>
       </c>
     </row>
     <row r="89">
@@ -3008,13 +3008,13 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>10371.75569190277</v>
+        <v>64272.61064094892</v>
       </c>
       <c r="F89" t="n">
-        <v>7778.816768927077</v>
+        <v>48204.45798071169</v>
       </c>
       <c r="G89" t="n">
-        <v>12964.69461487846</v>
+        <v>80340.76330118615</v>
       </c>
     </row>
     <row r="90">
@@ -3037,13 +3037,13 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>8725.445264616616</v>
+        <v>54070.6089519094</v>
       </c>
       <c r="F90" t="n">
-        <v>6544.083948462461</v>
+        <v>40552.95671393206</v>
       </c>
       <c r="G90" t="n">
-        <v>10906.80658077077</v>
+        <v>67588.26118988675</v>
       </c>
     </row>
     <row r="91">
@@ -3066,13 +3066,13 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>5871.840523987282</v>
+        <v>36387.13935757425</v>
       </c>
       <c r="F91" t="n">
-        <v>4403.880392990462</v>
+        <v>27290.35451818069</v>
       </c>
       <c r="G91" t="n">
-        <v>7339.800654984102</v>
+        <v>45483.92419696781</v>
       </c>
     </row>
     <row r="92">
@@ -3095,13 +3095,13 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>49396.7337886895</v>
+        <v>236136.4533784553</v>
       </c>
       <c r="F92" t="n">
-        <v>37047.55034151713</v>
+        <v>177102.3400338415</v>
       </c>
       <c r="G92" t="n">
-        <v>61745.91723586187</v>
+        <v>295170.5667230691</v>
       </c>
     </row>
     <row r="93">
@@ -3124,13 +3124,13 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>30516.20442945707</v>
+        <v>145879.8534204679</v>
       </c>
       <c r="F93" t="n">
-        <v>22887.1533220928</v>
+        <v>109409.8900653509</v>
       </c>
       <c r="G93" t="n">
-        <v>38145.25553682134</v>
+        <v>182349.8167755849</v>
       </c>
     </row>
     <row r="94">
@@ -3153,13 +3153,13 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>16465.57792956317</v>
+        <v>78712.15112615177</v>
       </c>
       <c r="F94" t="n">
-        <v>12349.18344717237</v>
+        <v>59034.11334461382</v>
       </c>
       <c r="G94" t="n">
-        <v>20581.97241195396</v>
+        <v>98390.18890768972</v>
       </c>
     </row>
     <row r="95">
@@ -3182,13 +3182,13 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>10373.3140956248</v>
+        <v>49588.65520947562</v>
       </c>
       <c r="F95" t="n">
-        <v>7779.985571718596</v>
+        <v>37191.49140710671</v>
       </c>
       <c r="G95" t="n">
-        <v>12966.64261953099</v>
+        <v>61985.81901184452</v>
       </c>
     </row>
     <row r="96">
@@ -3211,13 +3211,13 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>8726.756302668478</v>
+        <v>41717.44009686044</v>
       </c>
       <c r="F96" t="n">
-        <v>6545.067227001358</v>
+        <v>31288.08007264533</v>
       </c>
       <c r="G96" t="n">
-        <v>10908.4453783356</v>
+        <v>52146.80012107555</v>
       </c>
     </row>
     <row r="97">
@@ -3240,13 +3240,13 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>5872.72279487753</v>
+        <v>28074.00056832746</v>
       </c>
       <c r="F97" t="n">
-        <v>4404.542096158148</v>
+        <v>21055.5004262456</v>
       </c>
       <c r="G97" t="n">
-        <v>7340.903493596911</v>
+        <v>35092.50071040932</v>
       </c>
     </row>
     <row r="98">
@@ -3269,13 +3269,13 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>49395.07981485825</v>
+        <v>160200.968904747</v>
       </c>
       <c r="F98" t="n">
-        <v>37046.30986114369</v>
+        <v>120150.7266785603</v>
       </c>
       <c r="G98" t="n">
-        <v>61743.84976857282</v>
+        <v>200251.2111309338</v>
       </c>
     </row>
     <row r="99">
@@ -3298,13 +3298,13 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>30515.1826411791</v>
+        <v>98968.59856782151</v>
       </c>
       <c r="F99" t="n">
-        <v>22886.38698088433</v>
+        <v>74226.44892586613</v>
       </c>
       <c r="G99" t="n">
-        <v>38143.97830147388</v>
+        <v>123710.7482097769</v>
       </c>
     </row>
     <row r="100">
@@ -3327,13 +3327,13 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>16465.02660495275</v>
+        <v>53400.32296824902</v>
       </c>
       <c r="F100" t="n">
-        <v>12348.76995371456</v>
+        <v>40050.24222618676</v>
       </c>
       <c r="G100" t="n">
-        <v>20581.28325619094</v>
+        <v>66750.40371031128</v>
       </c>
     </row>
     <row r="101">
@@ -3356,13 +3356,13 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>10372.96676112023</v>
+        <v>33642.20346999689</v>
       </c>
       <c r="F101" t="n">
-        <v>7779.725070840176</v>
+        <v>25231.65260249766</v>
       </c>
       <c r="G101" t="n">
-        <v>12966.20845140029</v>
+        <v>42052.7543374961</v>
       </c>
     </row>
     <row r="102">
@@ -3385,13 +3385,13 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>8726.464100624959</v>
+        <v>28302.17117317198</v>
       </c>
       <c r="F102" t="n">
-        <v>6544.848075468719</v>
+        <v>21226.62837987898</v>
       </c>
       <c r="G102" t="n">
-        <v>10908.0801257812</v>
+        <v>35377.71396646497</v>
       </c>
     </row>
     <row r="103">
@@ -3414,13 +3414,13 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>5872.526155766482</v>
+        <v>19046.11519200882</v>
       </c>
       <c r="F103" t="n">
-        <v>4404.394616824862</v>
+        <v>14284.58639400661</v>
       </c>
       <c r="G103" t="n">
-        <v>7340.657694708102</v>
+        <v>23807.64399001102</v>
       </c>
     </row>
     <row r="104">
@@ -3443,13 +3443,13 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>49396.52025061573</v>
+        <v>109396.488089195</v>
       </c>
       <c r="F104" t="n">
-        <v>37047.3901879618</v>
+        <v>82047.3660668963</v>
       </c>
       <c r="G104" t="n">
-        <v>61745.65031326967</v>
+        <v>136745.6101114938</v>
       </c>
     </row>
     <row r="105">
@@ -3472,13 +3472,13 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>30516.07251038039</v>
+        <v>67582.71930843605</v>
       </c>
       <c r="F105" t="n">
-        <v>22887.05438278529</v>
+        <v>50687.03948132704</v>
       </c>
       <c r="G105" t="n">
-        <v>38145.09063797548</v>
+        <v>84478.39913554507</v>
       </c>
     </row>
     <row r="106">
@@ -3501,13 +3501,13 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>16465.50675020524</v>
+        <v>36465.49602973169</v>
       </c>
       <c r="F106" t="n">
-        <v>12349.13006265393</v>
+        <v>27349.12202229876</v>
       </c>
       <c r="G106" t="n">
-        <v>20581.88343775655</v>
+        <v>45581.8700371646</v>
       </c>
     </row>
     <row r="107">
@@ -3530,13 +3530,13 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>10373.2692526293</v>
+        <v>22973.26249873096</v>
       </c>
       <c r="F107" t="n">
-        <v>7779.951939471977</v>
+        <v>17229.94687404822</v>
       </c>
       <c r="G107" t="n">
-        <v>12966.58656578663</v>
+        <v>28716.5781234137</v>
       </c>
     </row>
     <row r="108">
@@ -3559,13 +3559,13 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>8726.718577608779</v>
+        <v>19326.71289575779</v>
       </c>
       <c r="F108" t="n">
-        <v>6545.038933206584</v>
+        <v>14495.03467181834</v>
       </c>
       <c r="G108" t="n">
-        <v>10908.39822201097</v>
+        <v>24158.39111969724</v>
       </c>
     </row>
     <row r="109">
@@ -3588,13 +3588,13 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>5872.697407573202</v>
+        <v>13006.02691727097</v>
       </c>
       <c r="F109" t="n">
-        <v>4404.523055679903</v>
+        <v>9754.520187953225</v>
       </c>
       <c r="G109" t="n">
-        <v>7340.871759466504</v>
+        <v>16257.53364658871</v>
       </c>
     </row>
     <row r="110">
@@ -3617,13 +3617,13 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>49391.4832885759</v>
+        <v>88570.77580370131</v>
       </c>
       <c r="F110" t="n">
-        <v>37043.61246643192</v>
+        <v>66428.08185277597</v>
       </c>
       <c r="G110" t="n">
-        <v>61739.35411071987</v>
+        <v>110713.4697546266</v>
       </c>
     </row>
     <row r="111">
@@ -3646,13 +3646,13 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>30512.96078716466</v>
+        <v>54717.05705206436</v>
       </c>
       <c r="F111" t="n">
-        <v>22884.7205903735</v>
+        <v>41037.79278904828</v>
       </c>
       <c r="G111" t="n">
-        <v>38141.20098395584</v>
+        <v>68396.32131508045</v>
       </c>
     </row>
     <row r="112">
@@ -3675,13 +3675,13 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>16463.82776285863</v>
+        <v>29523.5919345671</v>
       </c>
       <c r="F112" t="n">
-        <v>12347.87082214397</v>
+        <v>22142.69395092533</v>
       </c>
       <c r="G112" t="n">
-        <v>20579.78470357329</v>
+        <v>36904.48991820888</v>
       </c>
     </row>
     <row r="113">
@@ -3704,13 +3704,13 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>10372.21149060094</v>
+        <v>18599.86291877728</v>
       </c>
       <c r="F113" t="n">
-        <v>7779.158617950704</v>
+        <v>13949.89718908296</v>
       </c>
       <c r="G113" t="n">
-        <v>12965.26436325117</v>
+        <v>23249.82864847159</v>
       </c>
     </row>
     <row r="114">
@@ -3733,13 +3733,13 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>8725.828714315076</v>
+        <v>15647.50372532056</v>
       </c>
       <c r="F114" t="n">
-        <v>6544.371535736307</v>
+        <v>11735.62779399042</v>
       </c>
       <c r="G114" t="n">
-        <v>10907.28589289384</v>
+        <v>19559.3796566507</v>
       </c>
     </row>
     <row r="115">
@@ -3762,13 +3762,13 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>5872.098568752912</v>
+        <v>10530.08112332893</v>
       </c>
       <c r="F115" t="n">
-        <v>4404.073926564684</v>
+        <v>7897.560842496699</v>
       </c>
       <c r="G115" t="n">
-        <v>7340.12321094114</v>
+        <v>13162.60140416117</v>
       </c>
     </row>
     <row r="116">
@@ -3791,13 +3791,13 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>46655.21834783145</v>
+        <v>258362.2209211695</v>
       </c>
       <c r="F116" t="n">
-        <v>34991.41376087359</v>
+        <v>193771.6656908771</v>
       </c>
       <c r="G116" t="n">
-        <v>58319.02293478932</v>
+        <v>322952.7761514619</v>
       </c>
     </row>
     <row r="117">
@@ -3820,13 +3820,13 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>28822.55711266032</v>
+        <v>159610.4387024114</v>
       </c>
       <c r="F117" t="n">
-        <v>21616.91783449524</v>
+        <v>119707.8290268085</v>
       </c>
       <c r="G117" t="n">
-        <v>36028.1963908254</v>
+        <v>199513.0483780142</v>
       </c>
     </row>
     <row r="118">
@@ -3849,13 +3849,13 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>15551.73944927715</v>
+        <v>86120.74030705652</v>
       </c>
       <c r="F118" t="n">
-        <v>11663.80458695786</v>
+        <v>64590.55523029238</v>
       </c>
       <c r="G118" t="n">
-        <v>19439.67431159644</v>
+        <v>107650.9253838206</v>
       </c>
     </row>
     <row r="119">
@@ -3878,13 +3878,13 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>9797.595853044606</v>
+        <v>54256.0663934456</v>
       </c>
       <c r="F119" t="n">
-        <v>7348.196889783454</v>
+        <v>40692.0497950842</v>
       </c>
       <c r="G119" t="n">
-        <v>12246.99481630576</v>
+        <v>67820.08299180699</v>
       </c>
     </row>
     <row r="120">
@@ -3907,13 +3907,13 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>8242.42190811689</v>
+        <v>45643.99236273994</v>
       </c>
       <c r="F120" t="n">
-        <v>6181.816431087668</v>
+        <v>34232.99427205496</v>
       </c>
       <c r="G120" t="n">
-        <v>10303.02738514611</v>
+        <v>57054.99045342493</v>
       </c>
     </row>
     <row r="121">
@@ -3936,13 +3936,13 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>5546.787070242184</v>
+        <v>30716.39737618349</v>
       </c>
       <c r="F121" t="n">
-        <v>4160.090302681639</v>
+        <v>23037.29803213761</v>
       </c>
       <c r="G121" t="n">
-        <v>6933.483837802731</v>
+        <v>38395.49672022936</v>
       </c>
     </row>
     <row r="122">
@@ -3965,13 +3965,13 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>43488.88748907444</v>
+        <v>111542.5617300754</v>
       </c>
       <c r="F122" t="n">
-        <v>32616.66561680584</v>
+        <v>83656.92129755656</v>
       </c>
       <c r="G122" t="n">
-        <v>54361.10936134306</v>
+        <v>139428.2021625943</v>
       </c>
     </row>
     <row r="123">
@@ -3994,13 +3994,13 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>26866.46827102821</v>
+        <v>68908.51591324661</v>
       </c>
       <c r="F123" t="n">
-        <v>20149.85120327116</v>
+        <v>51681.38693493495</v>
       </c>
       <c r="G123" t="n">
-        <v>33583.08533878527</v>
+        <v>86135.64489155824</v>
       </c>
     </row>
     <row r="124">
@@ -4023,13 +4023,13 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>14496.29582969148</v>
+        <v>37180.85391002515</v>
       </c>
       <c r="F124" t="n">
-        <v>10872.22187226861</v>
+        <v>27885.64043251886</v>
       </c>
       <c r="G124" t="n">
-        <v>18120.36978711435</v>
+        <v>46476.06738753144</v>
       </c>
     </row>
     <row r="125">
@@ -4052,13 +4052,13 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>9132.666372705635</v>
+        <v>23423.93796331585</v>
       </c>
       <c r="F125" t="n">
-        <v>6849.499779529226</v>
+        <v>17567.95347248688</v>
       </c>
       <c r="G125" t="n">
-        <v>11415.83296588204</v>
+        <v>29279.9224541448</v>
       </c>
     </row>
     <row r="126">
@@ -4081,13 +4081,13 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>7683.036789736487</v>
+        <v>19705.85257231332</v>
       </c>
       <c r="F126" t="n">
-        <v>5762.277592302365</v>
+        <v>14779.389429235</v>
       </c>
       <c r="G126" t="n">
-        <v>9603.795987170606</v>
+        <v>24632.31571539166</v>
       </c>
     </row>
     <row r="127">
@@ -4110,13 +4110,13 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>5170.345512589963</v>
+        <v>13261.17122790897</v>
       </c>
       <c r="F127" t="n">
-        <v>3877.759134442472</v>
+        <v>9945.878420931725</v>
       </c>
       <c r="G127" t="n">
-        <v>6462.931890737453</v>
+        <v>16576.46403488621</v>
       </c>
     </row>
     <row r="128">
@@ -4139,13 +4139,13 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>49389.31281858461</v>
+        <v>424072.8283107613</v>
       </c>
       <c r="F128" t="n">
-        <v>37041.98461393846</v>
+        <v>318054.621233071</v>
       </c>
       <c r="G128" t="n">
-        <v>61736.64102323077</v>
+        <v>530091.0353884515</v>
       </c>
     </row>
     <row r="129">
@@ -4168,13 +4168,13 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>30511.61991903672</v>
+        <v>261982.7694897592</v>
       </c>
       <c r="F129" t="n">
-        <v>22883.71493927754</v>
+        <v>196487.0771173194</v>
       </c>
       <c r="G129" t="n">
-        <v>38139.5248987959</v>
+        <v>327478.461862199</v>
       </c>
     </row>
     <row r="130">
@@ -4197,13 +4197,13 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>16463.10427286154</v>
+        <v>141357.6094369204</v>
       </c>
       <c r="F130" t="n">
-        <v>12347.32820464615</v>
+        <v>106018.2070776903</v>
       </c>
       <c r="G130" t="n">
-        <v>20578.88034107692</v>
+        <v>176697.0117961505</v>
       </c>
     </row>
     <row r="131">
@@ -4226,13 +4226,13 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>10371.75569190277</v>
+        <v>89055.29394525988</v>
       </c>
       <c r="F131" t="n">
-        <v>7778.816768927077</v>
+        <v>66791.47045894491</v>
       </c>
       <c r="G131" t="n">
-        <v>12964.69461487846</v>
+        <v>111319.1174315748</v>
       </c>
     </row>
     <row r="132">
@@ -4255,13 +4255,13 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>8725.445264616616</v>
+        <v>74919.53300156782</v>
       </c>
       <c r="F132" t="n">
-        <v>6544.083948462461</v>
+        <v>56189.64975117588</v>
       </c>
       <c r="G132" t="n">
-        <v>10906.80658077077</v>
+        <v>93649.41625195977</v>
       </c>
     </row>
     <row r="133">
@@ -4284,13 +4284,13 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>5871.840523987282</v>
+        <v>50417.54736583495</v>
       </c>
       <c r="F133" t="n">
-        <v>4403.880392990462</v>
+        <v>37813.16052437622</v>
       </c>
       <c r="G133" t="n">
-        <v>7339.800654984102</v>
+        <v>63021.93420729368</v>
       </c>
     </row>
     <row r="134">
@@ -4313,13 +4313,13 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>49396.7337886895</v>
+        <v>364035.3582096468</v>
       </c>
       <c r="F134" t="n">
-        <v>37047.55034151713</v>
+        <v>273026.5186572351</v>
       </c>
       <c r="G134" t="n">
-        <v>61745.91723586187</v>
+        <v>455044.1977620586</v>
       </c>
     </row>
     <row r="135">
@@ -4342,13 +4342,13 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>30516.20442945707</v>
+        <v>224892.954627293</v>
       </c>
       <c r="F135" t="n">
-        <v>22887.1533220928</v>
+        <v>168669.7159704697</v>
       </c>
       <c r="G135" t="n">
-        <v>38145.25553682134</v>
+        <v>281116.1932841162</v>
       </c>
     </row>
     <row r="136">
@@ -4371,13 +4371,13 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>16465.57792956317</v>
+        <v>121345.1194032156</v>
       </c>
       <c r="F136" t="n">
-        <v>12349.18344717237</v>
+        <v>91008.83955241171</v>
       </c>
       <c r="G136" t="n">
-        <v>20581.97241195396</v>
+        <v>151681.3992540195</v>
       </c>
     </row>
     <row r="137">
@@ -4400,13 +4400,13 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>10373.3140956248</v>
+        <v>76447.42522402585</v>
       </c>
       <c r="F137" t="n">
-        <v>7779.985571718596</v>
+        <v>57335.56891801939</v>
       </c>
       <c r="G137" t="n">
-        <v>12966.64261953099</v>
+        <v>95559.28153003231</v>
       </c>
     </row>
     <row r="138">
@@ -4429,13 +4429,13 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>8726.756302668478</v>
+        <v>64312.91328370429</v>
       </c>
       <c r="F138" t="n">
-        <v>6545.067227001358</v>
+        <v>48234.68496277822</v>
       </c>
       <c r="G138" t="n">
-        <v>10908.4453783356</v>
+        <v>80391.14160463035</v>
       </c>
     </row>
     <row r="139">
@@ -4458,13 +4458,13 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>5872.72279487753</v>
+        <v>43279.75925381358</v>
       </c>
       <c r="F139" t="n">
-        <v>4404.542096158148</v>
+        <v>32459.81944036018</v>
       </c>
       <c r="G139" t="n">
-        <v>7340.903493596911</v>
+        <v>54099.69906726696</v>
       </c>
     </row>
     <row r="140">
@@ -4487,13 +4487,13 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>49395.07981485825</v>
+        <v>267855.2994451934</v>
       </c>
       <c r="F140" t="n">
-        <v>37046.30986114369</v>
+        <v>200891.4745838951</v>
       </c>
       <c r="G140" t="n">
-        <v>61743.84976857282</v>
+        <v>334819.1243064918</v>
       </c>
     </row>
     <row r="141">
@@ -4516,13 +4516,13 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>30515.1826411791</v>
+        <v>165475.0516572528</v>
       </c>
       <c r="F141" t="n">
-        <v>22886.38698088433</v>
+        <v>124106.2887429396</v>
       </c>
       <c r="G141" t="n">
-        <v>38143.97830147388</v>
+        <v>206843.814571566</v>
       </c>
     </row>
     <row r="142">
@@ -4545,13 +4545,13 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>16465.02660495275</v>
+        <v>89285.09981506447</v>
       </c>
       <c r="F142" t="n">
-        <v>12348.76995371456</v>
+        <v>66963.82486129836</v>
       </c>
       <c r="G142" t="n">
-        <v>20581.28325619094</v>
+        <v>111606.3747688306</v>
       </c>
     </row>
     <row r="143">
@@ -4574,13 +4574,13 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>10372.96676112023</v>
+        <v>56249.61288349062</v>
       </c>
       <c r="F143" t="n">
-        <v>7779.725070840176</v>
+        <v>42187.20966261797</v>
       </c>
       <c r="G143" t="n">
-        <v>12966.20845140029</v>
+        <v>70312.01610436327</v>
       </c>
     </row>
     <row r="144">
@@ -4603,13 +4603,13 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>8726.464100624959</v>
+        <v>47321.10290198417</v>
       </c>
       <c r="F144" t="n">
-        <v>6544.848075468719</v>
+        <v>35490.82717648813</v>
       </c>
       <c r="G144" t="n">
-        <v>10908.0801257812</v>
+        <v>59151.37862748021</v>
       </c>
     </row>
     <row r="145">
@@ -4632,13 +4632,13 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>5872.526155766482</v>
+        <v>31845.01893403966</v>
       </c>
       <c r="F145" t="n">
-        <v>4404.394616824862</v>
+        <v>23883.76420052975</v>
       </c>
       <c r="G145" t="n">
-        <v>7340.657694708102</v>
+        <v>39806.27366754958</v>
       </c>
     </row>
     <row r="146">
@@ -4661,13 +4661,13 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>49396.52025061573</v>
+        <v>192335.8233834038</v>
       </c>
       <c r="F146" t="n">
-        <v>37047.3901879618</v>
+        <v>144251.8675375528</v>
       </c>
       <c r="G146" t="n">
-        <v>61745.65031326967</v>
+        <v>240419.7792292548</v>
       </c>
     </row>
     <row r="147">
@@ -4690,13 +4690,13 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>30516.07251038039</v>
+        <v>118820.7975568583</v>
       </c>
       <c r="F147" t="n">
-        <v>22887.05438278529</v>
+        <v>89115.59816764374</v>
       </c>
       <c r="G147" t="n">
-        <v>38145.09063797548</v>
+        <v>148525.9969460729</v>
       </c>
     </row>
     <row r="148">
@@ -4719,13 +4719,13 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>16465.50675020524</v>
+        <v>64111.94112780127</v>
       </c>
       <c r="F148" t="n">
-        <v>12349.13006265393</v>
+        <v>48083.95584585094</v>
       </c>
       <c r="G148" t="n">
-        <v>20581.88343775655</v>
+        <v>80139.92640975158</v>
       </c>
     </row>
     <row r="149">
@@ -4748,13 +4748,13 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>10373.2692526293</v>
+        <v>40390.5229105148</v>
       </c>
       <c r="F149" t="n">
-        <v>7779.951939471977</v>
+        <v>30292.8921828861</v>
       </c>
       <c r="G149" t="n">
-        <v>12966.58656578663</v>
+        <v>50488.15363814349</v>
       </c>
     </row>
     <row r="150">
@@ -4777,13 +4777,13 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>8726.718577608779</v>
+        <v>33979.32879773467</v>
       </c>
       <c r="F150" t="n">
-        <v>6545.038933206584</v>
+        <v>25484.496598301</v>
       </c>
       <c r="G150" t="n">
-        <v>10908.39822201097</v>
+        <v>42474.16099716833</v>
       </c>
     </row>
     <row r="151">
@@ -4806,13 +4806,13 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>5872.697407573202</v>
+        <v>22866.59233558245</v>
       </c>
       <c r="F151" t="n">
-        <v>4404.523055679903</v>
+        <v>17149.94425168684</v>
       </c>
       <c r="G151" t="n">
-        <v>7340.871759466504</v>
+        <v>28583.24041947806</v>
       </c>
     </row>
     <row r="152">
@@ -4835,13 +4835,13 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>49391.4832885759</v>
+        <v>163919.825678285</v>
       </c>
       <c r="F152" t="n">
-        <v>37043.61246643192</v>
+        <v>122939.8692587137</v>
       </c>
       <c r="G152" t="n">
-        <v>61739.35411071987</v>
+        <v>204899.7820978563</v>
       </c>
     </row>
     <row r="153">
@@ -4864,13 +4864,13 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>30512.96078716466</v>
+        <v>101266.0256412516</v>
       </c>
       <c r="F153" t="n">
-        <v>22884.7205903735</v>
+        <v>75949.51923093872</v>
       </c>
       <c r="G153" t="n">
-        <v>38141.20098395584</v>
+        <v>126582.5320515645</v>
       </c>
     </row>
     <row r="154">
@@ -4893,13 +4893,13 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>16463.82776285863</v>
+        <v>54639.94189276167</v>
       </c>
       <c r="F154" t="n">
-        <v>12347.87082214397</v>
+        <v>40979.95641957125</v>
       </c>
       <c r="G154" t="n">
-        <v>20579.78470357329</v>
+        <v>68299.92736595208</v>
       </c>
     </row>
     <row r="155">
@@ -4922,13 +4922,13 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>10372.21149060094</v>
+        <v>34423.16339243986</v>
       </c>
       <c r="F155" t="n">
-        <v>7779.158617950704</v>
+        <v>25817.37254432989</v>
       </c>
       <c r="G155" t="n">
-        <v>12965.26436325117</v>
+        <v>43028.95424054981</v>
       </c>
     </row>
     <row r="156">
@@ -4951,13 +4951,13 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>8725.828714315076</v>
+        <v>28959.16920316368</v>
       </c>
       <c r="F156" t="n">
-        <v>6544.371535736307</v>
+        <v>21719.37690237277</v>
       </c>
       <c r="G156" t="n">
-        <v>10907.28589289384</v>
+        <v>36198.9615039546</v>
       </c>
     </row>
     <row r="157">
@@ -4980,13 +4980,13 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>5872.098568752912</v>
+        <v>19488.24594175166</v>
       </c>
       <c r="F157" t="n">
-        <v>4404.073926564684</v>
+        <v>14616.18445631375</v>
       </c>
       <c r="G157" t="n">
-        <v>7340.12321094114</v>
+        <v>24360.30742718957</v>
       </c>
     </row>
     <row r="158">
@@ -5009,13 +5009,13 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>46655.21834783145</v>
+        <v>316240.1697133235</v>
       </c>
       <c r="F158" t="n">
-        <v>34991.41376087359</v>
+        <v>237180.1272849926</v>
       </c>
       <c r="G158" t="n">
-        <v>58319.02293478932</v>
+        <v>395300.2121416543</v>
       </c>
     </row>
     <row r="159">
@@ -5038,13 +5038,13 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>28822.55711266032</v>
+        <v>195366.1492895643</v>
       </c>
       <c r="F159" t="n">
-        <v>21616.91783449524</v>
+        <v>146524.6119671732</v>
       </c>
       <c r="G159" t="n">
-        <v>36028.1963908254</v>
+        <v>244207.6866119554</v>
       </c>
     </row>
     <row r="160">
@@ -5067,13 +5067,13 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>15551.73944927715</v>
+        <v>105413.3899044412</v>
       </c>
       <c r="F160" t="n">
-        <v>11663.80458695786</v>
+        <v>79060.04242833087</v>
       </c>
       <c r="G160" t="n">
-        <v>19439.67431159644</v>
+        <v>131766.7373805515</v>
       </c>
     </row>
     <row r="161">
@@ -5096,13 +5096,13 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>9797.595853044606</v>
+        <v>66410.43563979794</v>
       </c>
       <c r="F161" t="n">
-        <v>7348.196889783454</v>
+        <v>49807.82672984845</v>
       </c>
       <c r="G161" t="n">
-        <v>12246.99481630576</v>
+        <v>83013.04454974743</v>
       </c>
     </row>
     <row r="162">
@@ -5125,13 +5125,13 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>8242.42190811689</v>
+        <v>55869.09664935381</v>
       </c>
       <c r="F162" t="n">
-        <v>6181.816431087668</v>
+        <v>41901.82248701537</v>
       </c>
       <c r="G162" t="n">
-        <v>10303.02738514611</v>
+        <v>69836.37081169228</v>
       </c>
     </row>
     <row r="163">
@@ -5154,13 +5154,13 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>5546.787070242184</v>
+        <v>37597.44239925069</v>
       </c>
       <c r="F163" t="n">
-        <v>4160.090302681639</v>
+        <v>28198.08179943801</v>
       </c>
       <c r="G163" t="n">
-        <v>6933.483837802731</v>
+        <v>46996.80299906335</v>
       </c>
     </row>
     <row r="164">
@@ -5183,13 +5183,13 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>43488.88748907444</v>
+        <v>118033.9506995144</v>
       </c>
       <c r="F164" t="n">
-        <v>32616.66561680584</v>
+        <v>88525.46302463581</v>
       </c>
       <c r="G164" t="n">
-        <v>54361.10936134306</v>
+        <v>147542.438374393</v>
       </c>
     </row>
     <row r="165">
@@ -5212,13 +5212,13 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>26866.46827102821</v>
+        <v>72918.75176547778</v>
       </c>
       <c r="F165" t="n">
-        <v>20149.85120327116</v>
+        <v>54689.06382410834</v>
       </c>
       <c r="G165" t="n">
-        <v>33583.08533878527</v>
+        <v>91148.43970684725</v>
       </c>
     </row>
     <row r="166">
@@ -5241,13 +5241,13 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>14496.29582969148</v>
+        <v>39344.65023317147</v>
       </c>
       <c r="F166" t="n">
-        <v>10872.22187226861</v>
+        <v>29508.4876748786</v>
       </c>
       <c r="G166" t="n">
-        <v>18120.36978711435</v>
+        <v>49180.81279146434</v>
       </c>
     </row>
     <row r="167">
@@ -5270,13 +5270,13 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>9132.666372705635</v>
+        <v>24787.12964689803</v>
       </c>
       <c r="F167" t="n">
-        <v>6849.499779529226</v>
+        <v>18590.34723517352</v>
       </c>
       <c r="G167" t="n">
-        <v>11415.83296588204</v>
+        <v>30983.91205862253</v>
       </c>
     </row>
     <row r="168">
@@ -5299,13 +5299,13 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>7683.036789736487</v>
+        <v>20852.66462358088</v>
       </c>
       <c r="F168" t="n">
-        <v>5762.277592302365</v>
+        <v>15639.49846768566</v>
       </c>
       <c r="G168" t="n">
-        <v>9603.795987170606</v>
+        <v>26065.8307794761</v>
       </c>
     </row>
     <row r="169">
@@ -5328,13 +5328,13 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>5170.345512589963</v>
+        <v>14032.92524983116</v>
       </c>
       <c r="F169" t="n">
-        <v>3877.759134442472</v>
+        <v>10524.69393737337</v>
       </c>
       <c r="G169" t="n">
-        <v>6462.931890737453</v>
+        <v>17541.15656228895</v>
       </c>
     </row>
     <row r="170">
@@ -5357,13 +5357,13 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>49389.31281858461</v>
+        <v>330425.3905707987</v>
       </c>
       <c r="F170" t="n">
-        <v>37041.98461393846</v>
+        <v>247819.0429280991</v>
       </c>
       <c r="G170" t="n">
-        <v>61736.64102323077</v>
+        <v>413031.7382134984</v>
       </c>
     </row>
     <row r="171">
@@ -5386,13 +5386,13 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>30511.61991903672</v>
+        <v>204129.4635081823</v>
       </c>
       <c r="F171" t="n">
-        <v>22883.71493927754</v>
+        <v>153097.0976311367</v>
       </c>
       <c r="G171" t="n">
-        <v>38139.5248987959</v>
+        <v>255161.8293852279</v>
       </c>
     </row>
     <row r="172">
@@ -5415,13 +5415,13 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>16463.10427286154</v>
+        <v>110141.7968569329</v>
       </c>
       <c r="F172" t="n">
-        <v>12347.32820464615</v>
+        <v>82606.34764269968</v>
       </c>
       <c r="G172" t="n">
-        <v>20578.88034107692</v>
+        <v>137677.2460711662</v>
       </c>
     </row>
     <row r="173">
@@ -5444,13 +5444,13 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>10371.75569190277</v>
+        <v>69389.33201986774</v>
       </c>
       <c r="F173" t="n">
-        <v>7778.816768927077</v>
+        <v>52041.9990149008</v>
       </c>
       <c r="G173" t="n">
-        <v>12964.69461487846</v>
+        <v>86736.66502483467</v>
       </c>
     </row>
     <row r="174">
@@ -5473,13 +5473,13 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>8725.445264616616</v>
+        <v>58375.15233417444</v>
       </c>
       <c r="F174" t="n">
-        <v>6544.083948462461</v>
+        <v>43781.36425063084</v>
       </c>
       <c r="G174" t="n">
-        <v>10906.80658077077</v>
+        <v>72968.94041771804</v>
       </c>
     </row>
     <row r="175">
@@ -5502,13 +5502,13 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>5871.840523987282</v>
+        <v>39283.9075456394</v>
       </c>
       <c r="F175" t="n">
-        <v>4403.880392990462</v>
+        <v>29462.93065922955</v>
       </c>
       <c r="G175" t="n">
-        <v>7339.800654984102</v>
+        <v>49104.88443204925</v>
       </c>
     </row>
     <row r="176">
@@ -5531,13 +5531,13 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>49396.7337886895</v>
+        <v>261489.4447380326</v>
       </c>
       <c r="F176" t="n">
-        <v>37047.55034151713</v>
+        <v>196117.0835535245</v>
       </c>
       <c r="G176" t="n">
-        <v>61745.91723586187</v>
+        <v>326861.8059225408</v>
       </c>
     </row>
     <row r="177">
@@ -5560,13 +5560,13 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>30516.20442945707</v>
+        <v>161542.3680826068</v>
       </c>
       <c r="F177" t="n">
-        <v>22887.1533220928</v>
+        <v>121156.7760619551</v>
       </c>
       <c r="G177" t="n">
-        <v>38145.25553682134</v>
+        <v>201927.9601032585</v>
       </c>
     </row>
     <row r="178">
@@ -5589,13 +5589,13 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>16465.57792956317</v>
+        <v>87163.14824601088</v>
       </c>
       <c r="F178" t="n">
-        <v>12349.18344717237</v>
+        <v>65372.36118450815</v>
       </c>
       <c r="G178" t="n">
-        <v>20581.97241195396</v>
+        <v>108953.9353075136</v>
       </c>
     </row>
     <row r="179">
@@ -5618,13 +5618,13 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>10373.3140956248</v>
+        <v>54912.78339498686</v>
       </c>
       <c r="F179" t="n">
-        <v>7779.985571718596</v>
+        <v>41184.58754624014</v>
       </c>
       <c r="G179" t="n">
-        <v>12966.64261953099</v>
+        <v>68640.97924373357</v>
       </c>
     </row>
     <row r="180">
@@ -5647,13 +5647,13 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>8726.756302668478</v>
+        <v>46196.46857038577</v>
       </c>
       <c r="F180" t="n">
-        <v>6545.067227001358</v>
+        <v>34647.35142778933</v>
       </c>
       <c r="G180" t="n">
-        <v>10908.4453783356</v>
+        <v>57745.5857129822</v>
       </c>
     </row>
     <row r="181">
@@ -5676,13 +5676,13 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>5872.72279487753</v>
+        <v>31088.18954107722</v>
       </c>
       <c r="F181" t="n">
-        <v>4404.542096158148</v>
+        <v>23316.14215580791</v>
       </c>
       <c r="G181" t="n">
-        <v>7340.903493596911</v>
+        <v>38860.23692634652</v>
       </c>
     </row>
     <row r="182">
@@ -5705,13 +5705,13 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>49395.07981485825</v>
+        <v>180655.144035426</v>
       </c>
       <c r="F182" t="n">
-        <v>37046.30986114369</v>
+        <v>135491.3580265695</v>
       </c>
       <c r="G182" t="n">
-        <v>61743.84976857282</v>
+        <v>225818.9300442825</v>
       </c>
     </row>
     <row r="183">
@@ -5734,13 +5734,13 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>30515.1826411791</v>
+        <v>111604.7334263299</v>
       </c>
       <c r="F183" t="n">
-        <v>22886.38698088433</v>
+        <v>83703.55006974739</v>
       </c>
       <c r="G183" t="n">
-        <v>38143.97830147388</v>
+        <v>139505.9167829123</v>
       </c>
     </row>
     <row r="184">
@@ -5763,13 +5763,13 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>16465.02660495275</v>
+        <v>60218.38134514201</v>
       </c>
       <c r="F184" t="n">
-        <v>12348.76995371456</v>
+        <v>45163.78600885651</v>
       </c>
       <c r="G184" t="n">
-        <v>20581.28325619094</v>
+        <v>75272.97668142751</v>
       </c>
     </row>
     <row r="185">
@@ -5792,13 +5792,13 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>10372.96676112023</v>
+        <v>37937.58024743947</v>
       </c>
       <c r="F185" t="n">
-        <v>7779.725070840176</v>
+        <v>28453.1851855796</v>
       </c>
       <c r="G185" t="n">
-        <v>12966.20845140029</v>
+        <v>47421.97530929933</v>
       </c>
     </row>
     <row r="186">
@@ -5821,13 +5821,13 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>8726.464100624959</v>
+        <v>31915.74211292527</v>
       </c>
       <c r="F186" t="n">
-        <v>6544.848075468719</v>
+        <v>23936.80658469395</v>
       </c>
       <c r="G186" t="n">
-        <v>10908.0801257812</v>
+        <v>39894.67764115658</v>
       </c>
     </row>
     <row r="187">
@@ -5850,13 +5850,13 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>5872.526155766482</v>
+        <v>21477.88934643398</v>
       </c>
       <c r="F187" t="n">
-        <v>4404.394616824862</v>
+        <v>16108.41700982549</v>
       </c>
       <c r="G187" t="n">
-        <v>7340.657694708102</v>
+        <v>26847.36168304248</v>
       </c>
     </row>
     <row r="188">
@@ -5879,13 +5879,13 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>49396.52025061573</v>
+        <v>124639.1875176732</v>
       </c>
       <c r="F188" t="n">
-        <v>37047.3901879618</v>
+        <v>93479.39063825493</v>
       </c>
       <c r="G188" t="n">
-        <v>61745.65031326967</v>
+        <v>155798.9843970916</v>
       </c>
     </row>
     <row r="189">
@@ -5908,13 +5908,13 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>30516.07251038039</v>
+        <v>76999.3202886959</v>
       </c>
       <c r="F189" t="n">
-        <v>22887.05438278529</v>
+        <v>57749.49021652192</v>
       </c>
       <c r="G189" t="n">
-        <v>38145.09063797548</v>
+        <v>96249.1503608699</v>
       </c>
     </row>
     <row r="190">
@@ -5937,13 +5937,13 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>16465.50675020524</v>
+        <v>41546.39583922442</v>
       </c>
       <c r="F190" t="n">
-        <v>12349.13006265393</v>
+        <v>31159.79687941831</v>
       </c>
       <c r="G190" t="n">
-        <v>20581.88343775655</v>
+        <v>51932.99479903052</v>
       </c>
     </row>
     <row r="191">
@@ -5966,13 +5966,13 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>10373.2692526293</v>
+        <v>26174.22937871138</v>
       </c>
       <c r="F191" t="n">
-        <v>7779.951939471977</v>
+        <v>19630.67203403353</v>
       </c>
       <c r="G191" t="n">
-        <v>12966.58656578663</v>
+        <v>32717.78672338922</v>
       </c>
     </row>
     <row r="192">
@@ -5995,13 +5995,13 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>8726.718577608779</v>
+        <v>22019.58979478894</v>
       </c>
       <c r="F192" t="n">
-        <v>6545.038933206584</v>
+        <v>16514.69234609171</v>
       </c>
       <c r="G192" t="n">
-        <v>10908.39822201097</v>
+        <v>27524.48724348617</v>
       </c>
     </row>
     <row r="193">
@@ -6024,13 +6024,13 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>5872.697407573202</v>
+        <v>14818.21451599004</v>
       </c>
       <c r="F193" t="n">
-        <v>4404.523055679903</v>
+        <v>11113.66088699253</v>
       </c>
       <c r="G193" t="n">
-        <v>7340.871759466504</v>
+        <v>18522.76814498755</v>
       </c>
     </row>
     <row r="194">
@@ -6053,13 +6053,13 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>49391.4832885759</v>
+        <v>102117.6888849802</v>
       </c>
       <c r="F194" t="n">
-        <v>37043.61246643192</v>
+        <v>76588.26666373518</v>
       </c>
       <c r="G194" t="n">
-        <v>61739.35411071987</v>
+        <v>127647.1111062253</v>
       </c>
     </row>
     <row r="195">
@@ -6082,13 +6082,13 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>30512.96078716466</v>
+        <v>63086.03891116557</v>
       </c>
       <c r="F195" t="n">
-        <v>22884.7205903735</v>
+        <v>47314.52918337417</v>
       </c>
       <c r="G195" t="n">
-        <v>38141.20098395584</v>
+        <v>78857.54863895696</v>
       </c>
     </row>
     <row r="196">
@@ -6111,13 +6111,13 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>16463.82776285863</v>
+        <v>34039.22962832674</v>
       </c>
       <c r="F196" t="n">
-        <v>12347.87082214397</v>
+        <v>25529.42222124506</v>
       </c>
       <c r="G196" t="n">
-        <v>20579.78470357329</v>
+        <v>42549.03703540843</v>
       </c>
     </row>
     <row r="197">
@@ -6140,13 +6140,13 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>10372.21149060094</v>
+        <v>21444.71466584585</v>
       </c>
       <c r="F197" t="n">
-        <v>7779.158617950704</v>
+        <v>16083.53599938439</v>
       </c>
       <c r="G197" t="n">
-        <v>12965.26436325117</v>
+        <v>26805.89333230731</v>
       </c>
     </row>
     <row r="198">
@@ -6169,13 +6169,13 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>8725.828714315076</v>
+        <v>18040.79170301318</v>
       </c>
       <c r="F198" t="n">
-        <v>6544.371535736307</v>
+        <v>13530.59377725988</v>
       </c>
       <c r="G198" t="n">
-        <v>10907.28589289384</v>
+        <v>22550.98962876647</v>
       </c>
     </row>
     <row r="199">
@@ -6198,13 +6198,13 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>5872.098568752912</v>
+        <v>12140.65856743654</v>
       </c>
       <c r="F199" t="n">
-        <v>4404.073926564684</v>
+        <v>9105.493925577404</v>
       </c>
       <c r="G199" t="n">
-        <v>7340.12321094114</v>
+        <v>15175.82320929567</v>
       </c>
     </row>
     <row r="200">
@@ -6227,13 +6227,13 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>46655.21834783145</v>
+        <v>273417.2412965916</v>
       </c>
       <c r="F200" t="n">
-        <v>34991.41376087359</v>
+        <v>205062.9309724437</v>
       </c>
       <c r="G200" t="n">
-        <v>58319.02293478932</v>
+        <v>341771.5516207395</v>
       </c>
     </row>
     <row r="201">
@@ -6256,13 +6256,13 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>28822.55711266032</v>
+        <v>168911.0957343388</v>
       </c>
       <c r="F201" t="n">
-        <v>21616.91783449524</v>
+        <v>126683.3218007541</v>
       </c>
       <c r="G201" t="n">
-        <v>36028.1963908254</v>
+        <v>211138.8696679235</v>
       </c>
     </row>
     <row r="202">
@@ -6285,13 +6285,13 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>15551.73944927715</v>
+        <v>91139.08043219721</v>
       </c>
       <c r="F202" t="n">
-        <v>11663.80458695786</v>
+        <v>68354.3103241479</v>
       </c>
       <c r="G202" t="n">
-        <v>19439.67431159644</v>
+        <v>113923.8505402465</v>
       </c>
     </row>
     <row r="203">
@@ -6314,13 +6314,13 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>9797.595853044606</v>
+        <v>57417.62067228425</v>
       </c>
       <c r="F203" t="n">
-        <v>7348.196889783454</v>
+        <v>43063.21550421318</v>
       </c>
       <c r="G203" t="n">
-        <v>12246.99481630576</v>
+        <v>71772.0258403553</v>
       </c>
     </row>
     <row r="204">
@@ -6343,13 +6343,13 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>8242.42190811689</v>
+        <v>48303.71262906452</v>
       </c>
       <c r="F204" t="n">
-        <v>6181.816431087668</v>
+        <v>36227.78447179839</v>
       </c>
       <c r="G204" t="n">
-        <v>10303.02738514611</v>
+        <v>60379.64078633064</v>
       </c>
     </row>
     <row r="205">
@@ -6372,13 +6372,13 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>5546.787070242184</v>
+        <v>32506.272020817</v>
       </c>
       <c r="F205" t="n">
-        <v>4160.090302681639</v>
+        <v>24379.70401561275</v>
       </c>
       <c r="G205" t="n">
-        <v>6933.483837802731</v>
+        <v>40632.84002602125</v>
       </c>
     </row>
     <row r="206">
@@ -6401,13 +6401,13 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>43488.88748907444</v>
+        <v>112793.5499745924</v>
       </c>
       <c r="F206" t="n">
-        <v>32616.66561680584</v>
+        <v>84595.16248094432</v>
       </c>
       <c r="G206" t="n">
-        <v>54361.10936134306</v>
+        <v>140991.9374682405</v>
       </c>
     </row>
     <row r="207">
@@ -6430,13 +6430,13 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>26866.46827102821</v>
+        <v>69681.34865097042</v>
       </c>
       <c r="F207" t="n">
-        <v>20149.85120327116</v>
+        <v>52261.01148822781</v>
       </c>
       <c r="G207" t="n">
-        <v>33583.08533878527</v>
+        <v>87101.68581371303</v>
       </c>
     </row>
     <row r="208">
@@ -6459,13 +6459,13 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>14496.29582969148</v>
+        <v>37597.84999153081</v>
       </c>
       <c r="F208" t="n">
-        <v>10872.22187226861</v>
+        <v>28198.3874936481</v>
       </c>
       <c r="G208" t="n">
-        <v>18120.36978711435</v>
+        <v>46997.31248941351</v>
       </c>
     </row>
     <row r="209">
@@ -6488,13 +6488,13 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>9132.666372705635</v>
+        <v>23686.64549466441</v>
       </c>
       <c r="F209" t="n">
-        <v>6849.499779529226</v>
+        <v>17764.98412099831</v>
       </c>
       <c r="G209" t="n">
-        <v>11415.83296588204</v>
+        <v>29608.30686833051</v>
       </c>
     </row>
     <row r="210">
@@ -6517,13 +6517,13 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>7683.036789736487</v>
+        <v>19926.86049551133</v>
       </c>
       <c r="F210" t="n">
-        <v>5762.277592302365</v>
+        <v>14945.14537163349</v>
       </c>
       <c r="G210" t="n">
-        <v>9603.795987170606</v>
+        <v>24908.57561938915</v>
       </c>
     </row>
     <row r="211">
@@ -6546,13 +6546,13 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>5170.345512589963</v>
+        <v>13409.89983031265</v>
       </c>
       <c r="F211" t="n">
-        <v>3877.759134442472</v>
+        <v>10057.42487273449</v>
       </c>
       <c r="G211" t="n">
-        <v>6462.931890737453</v>
+        <v>16762.37478789081</v>
       </c>
     </row>
     <row r="212">
@@ -6575,13 +6575,13 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>49389.31281858461</v>
+        <v>328229.1812405</v>
       </c>
       <c r="F212" t="n">
-        <v>37041.98461393846</v>
+        <v>246171.885930375</v>
       </c>
       <c r="G212" t="n">
-        <v>61736.64102323077</v>
+        <v>410286.4765506251</v>
       </c>
     </row>
     <row r="213">
@@ -6604,13 +6604,13 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>30511.61991903672</v>
+        <v>202772.6941885756</v>
       </c>
       <c r="F213" t="n">
-        <v>22883.71493927754</v>
+        <v>152079.5206414317</v>
       </c>
       <c r="G213" t="n">
-        <v>38139.5248987959</v>
+        <v>253465.8677357195</v>
       </c>
     </row>
     <row r="214">
@@ -6633,13 +6633,13 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>16463.10427286154</v>
+        <v>109409.7270801667</v>
       </c>
       <c r="F214" t="n">
-        <v>12347.32820464615</v>
+        <v>82057.29531012499</v>
       </c>
       <c r="G214" t="n">
-        <v>20578.88034107692</v>
+        <v>136762.1588502083</v>
       </c>
     </row>
     <row r="215">
@@ -6662,13 +6662,13 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>10371.75569190277</v>
+        <v>68928.12806050501</v>
       </c>
       <c r="F215" t="n">
-        <v>7778.816768927077</v>
+        <v>51696.09604537876</v>
       </c>
       <c r="G215" t="n">
-        <v>12964.69461487846</v>
+        <v>86160.16007563124</v>
       </c>
     </row>
     <row r="216">
@@ -6691,13 +6691,13 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>8725.445264616616</v>
+        <v>57987.15535248833</v>
       </c>
       <c r="F216" t="n">
-        <v>6544.083948462461</v>
+        <v>43490.36651436625</v>
       </c>
       <c r="G216" t="n">
-        <v>10906.80658077077</v>
+        <v>72483.94419061042</v>
       </c>
     </row>
     <row r="217">
@@ -6720,13 +6720,13 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>5871.840523987282</v>
+        <v>39022.80265859278</v>
       </c>
       <c r="F217" t="n">
-        <v>4403.880392990462</v>
+        <v>29267.10199394458</v>
       </c>
       <c r="G217" t="n">
-        <v>7339.800654984102</v>
+        <v>48778.50332324097</v>
       </c>
     </row>
     <row r="218">
@@ -6749,13 +6749,13 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>49396.7337886895</v>
+        <v>259204.2118455594</v>
       </c>
       <c r="F218" t="n">
-        <v>37047.55034151713</v>
+        <v>194403.1588841696</v>
       </c>
       <c r="G218" t="n">
-        <v>61745.91723586187</v>
+        <v>324005.2648069493</v>
       </c>
     </row>
     <row r="219">
@@ -6778,13 +6778,13 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>30516.20442945707</v>
+        <v>160130.6019845901</v>
       </c>
       <c r="F219" t="n">
-        <v>22887.1533220928</v>
+        <v>120097.9514884425</v>
       </c>
       <c r="G219" t="n">
-        <v>38145.25553682134</v>
+        <v>200163.2524807376</v>
       </c>
     </row>
     <row r="220">
@@ -6807,13 +6807,13 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>16465.57792956317</v>
+        <v>86401.40394851982</v>
       </c>
       <c r="F220" t="n">
-        <v>12349.18344717237</v>
+        <v>64801.05296138986</v>
       </c>
       <c r="G220" t="n">
-        <v>20581.97241195396</v>
+        <v>108001.7549356498</v>
       </c>
     </row>
     <row r="221">
@@ -6836,13 +6836,13 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>10373.3140956248</v>
+        <v>54432.88448756748</v>
       </c>
       <c r="F221" t="n">
-        <v>7779.985571718596</v>
+        <v>40824.66336567562</v>
       </c>
       <c r="G221" t="n">
-        <v>12966.64261953099</v>
+        <v>68041.10560945935</v>
       </c>
     </row>
     <row r="222">
@@ -6865,13 +6865,13 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>8726.756302668478</v>
+        <v>45792.7440927155</v>
       </c>
       <c r="F222" t="n">
-        <v>6545.067227001358</v>
+        <v>34344.55806953663</v>
       </c>
       <c r="G222" t="n">
-        <v>10908.4453783356</v>
+        <v>57240.93011589438</v>
       </c>
     </row>
     <row r="223">
@@ -6894,13 +6894,13 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>5872.72279487753</v>
+        <v>30816.50074163873</v>
       </c>
       <c r="F223" t="n">
-        <v>4404.542096158148</v>
+        <v>23112.37555622905</v>
       </c>
       <c r="G223" t="n">
-        <v>7340.903493596911</v>
+        <v>38520.62592704842</v>
       </c>
     </row>
     <row r="224">
@@ -6923,13 +6923,13 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>49395.07981485825</v>
+        <v>178811.4738690898</v>
       </c>
       <c r="F224" t="n">
-        <v>37046.30986114369</v>
+        <v>134108.6054018173</v>
       </c>
       <c r="G224" t="n">
-        <v>61743.84976857282</v>
+        <v>223514.3423363622</v>
       </c>
     </row>
     <row r="225">
@@ -6952,13 +6952,13 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>30515.1826411791</v>
+        <v>110465.7549680154</v>
       </c>
       <c r="F225" t="n">
-        <v>22886.38698088433</v>
+        <v>82849.31622601158</v>
       </c>
       <c r="G225" t="n">
-        <v>38143.97830147388</v>
+        <v>138082.1937100193</v>
       </c>
     </row>
     <row r="226">
@@ -6981,13 +6981,13 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>16465.02660495275</v>
+        <v>59603.82462302992</v>
       </c>
       <c r="F226" t="n">
-        <v>12348.76995371456</v>
+        <v>44702.86846727244</v>
       </c>
       <c r="G226" t="n">
-        <v>20581.28325619094</v>
+        <v>74504.7807787874</v>
       </c>
     </row>
     <row r="227">
@@ -7010,13 +7010,13 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>10372.96676112023</v>
+        <v>37550.40951250885</v>
       </c>
       <c r="F227" t="n">
-        <v>7779.725070840176</v>
+        <v>28162.80713438164</v>
       </c>
       <c r="G227" t="n">
-        <v>12966.20845140029</v>
+        <v>46938.01189063606</v>
       </c>
     </row>
     <row r="228">
@@ -7039,13 +7039,13 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>8726.464100624959</v>
+        <v>31590.02705020586</v>
       </c>
       <c r="F228" t="n">
-        <v>6544.848075468719</v>
+        <v>23692.5202876544</v>
       </c>
       <c r="G228" t="n">
-        <v>10908.0801257812</v>
+        <v>39487.53381275732</v>
       </c>
     </row>
     <row r="229">
@@ -7068,13 +7068,13 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>5872.526155766482</v>
+        <v>21258.69744888067</v>
       </c>
       <c r="F229" t="n">
-        <v>4404.394616824862</v>
+        <v>15944.0230866605</v>
       </c>
       <c r="G229" t="n">
-        <v>7340.657694708102</v>
+        <v>26573.37181110083</v>
       </c>
     </row>
     <row r="230">
@@ -7097,13 +7097,13 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>49396.52025061573</v>
+        <v>123265.262144923</v>
       </c>
       <c r="F230" t="n">
-        <v>37047.3901879618</v>
+        <v>92448.94660869226</v>
       </c>
       <c r="G230" t="n">
-        <v>61745.65031326967</v>
+        <v>154081.5776811538</v>
       </c>
     </row>
     <row r="231">
@@ -7126,13 +7126,13 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>30516.07251038039</v>
+        <v>76150.53972508578</v>
       </c>
       <c r="F231" t="n">
-        <v>22887.05438278529</v>
+        <v>57112.90479381433</v>
       </c>
       <c r="G231" t="n">
-        <v>38145.09063797548</v>
+        <v>95188.17465635722</v>
       </c>
     </row>
     <row r="232">
@@ -7155,13 +7155,13 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>16465.50675020524</v>
+        <v>41088.42071497435</v>
       </c>
       <c r="F232" t="n">
-        <v>12349.13006265393</v>
+        <v>30816.31553623075</v>
       </c>
       <c r="G232" t="n">
-        <v>20581.88343775655</v>
+        <v>51360.52589371793</v>
       </c>
     </row>
     <row r="233">
@@ -7184,13 +7184,13 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>10373.2692526293</v>
+        <v>25885.70505043384</v>
       </c>
       <c r="F233" t="n">
-        <v>7779.951939471977</v>
+        <v>19414.27878782538</v>
       </c>
       <c r="G233" t="n">
-        <v>12966.58656578663</v>
+        <v>32357.13131304229</v>
       </c>
     </row>
     <row r="234">
@@ -7213,13 +7213,13 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>8726.718577608779</v>
+        <v>21776.8629789364</v>
       </c>
       <c r="F234" t="n">
-        <v>6545.038933206584</v>
+        <v>16332.6472342023</v>
       </c>
       <c r="G234" t="n">
-        <v>10908.39822201097</v>
+        <v>27221.0787236705</v>
       </c>
     </row>
     <row r="235">
@@ -7242,13 +7242,13 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>5872.697407573202</v>
+        <v>14654.87005500751</v>
       </c>
       <c r="F235" t="n">
-        <v>4404.523055679903</v>
+        <v>10991.15254125563</v>
       </c>
       <c r="G235" t="n">
-        <v>7340.871759466504</v>
+        <v>18318.58756875939</v>
       </c>
     </row>
     <row r="236">
@@ -7271,13 +7271,13 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>49391.4832885759</v>
+        <v>100896.6159580919</v>
       </c>
       <c r="F236" t="n">
-        <v>37043.61246643192</v>
+        <v>75672.46196856892</v>
       </c>
       <c r="G236" t="n">
-        <v>61739.35411071987</v>
+        <v>126120.7699476149</v>
       </c>
     </row>
     <row r="237">
@@ -7300,13 +7300,13 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>30512.96078716466</v>
+        <v>62331.68719188788</v>
       </c>
       <c r="F237" t="n">
-        <v>22884.7205903735</v>
+        <v>46748.76539391591</v>
       </c>
       <c r="G237" t="n">
-        <v>38141.20098395584</v>
+        <v>77914.60898985986</v>
       </c>
     </row>
     <row r="238">
@@ -7329,13 +7329,13 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>16463.82776285863</v>
+        <v>33632.20531936397</v>
       </c>
       <c r="F238" t="n">
-        <v>12347.87082214397</v>
+        <v>25224.15398952297</v>
       </c>
       <c r="G238" t="n">
-        <v>20579.78470357329</v>
+        <v>42040.25664920496</v>
       </c>
     </row>
     <row r="239">
@@ -7358,13 +7358,13 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>10372.21149060094</v>
+        <v>21188.2893511993</v>
       </c>
       <c r="F239" t="n">
-        <v>7779.158617950704</v>
+        <v>15891.21701339948</v>
       </c>
       <c r="G239" t="n">
-        <v>12965.26436325117</v>
+        <v>26485.36168899912</v>
       </c>
     </row>
     <row r="240">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>8725.828714315076</v>
+        <v>17825.0688192629</v>
       </c>
       <c r="F240" t="n">
-        <v>6544.371535736307</v>
+        <v>13368.80161444718</v>
       </c>
       <c r="G240" t="n">
-        <v>10907.28589289384</v>
+        <v>22281.33602407863</v>
       </c>
     </row>
     <row r="241">
@@ -7416,13 +7416,13 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>5872.098568752912</v>
+        <v>11995.48656390648</v>
       </c>
       <c r="F241" t="n">
-        <v>4404.073926564684</v>
+        <v>8996.614922929861</v>
       </c>
       <c r="G241" t="n">
-        <v>7340.12321094114</v>
+        <v>14994.3582048831</v>
       </c>
     </row>
     <row r="242">
@@ -7445,13 +7445,13 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>46655.21834783145</v>
+        <v>272060.2326789173</v>
       </c>
       <c r="F242" t="n">
-        <v>34991.41376087359</v>
+        <v>204045.174509188</v>
       </c>
       <c r="G242" t="n">
-        <v>58319.02293478932</v>
+        <v>340075.2908486467</v>
       </c>
     </row>
     <row r="243">
@@ -7474,13 +7474,13 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>28822.55711266032</v>
+        <v>168072.7659660867</v>
       </c>
       <c r="F243" t="n">
-        <v>21616.91783449524</v>
+        <v>126054.574474565</v>
       </c>
       <c r="G243" t="n">
-        <v>36028.1963908254</v>
+        <v>210090.9574576084</v>
       </c>
     </row>
     <row r="244">
@@ -7503,13 +7503,13 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>15551.73944927715</v>
+        <v>90686.74422630577</v>
       </c>
       <c r="F244" t="n">
-        <v>11663.80458695786</v>
+        <v>68015.05816972932</v>
       </c>
       <c r="G244" t="n">
-        <v>19439.67431159644</v>
+        <v>113358.4302828822</v>
       </c>
     </row>
     <row r="245">
@@ -7532,13 +7532,13 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>9797.595853044606</v>
+        <v>57132.64886257264</v>
       </c>
       <c r="F245" t="n">
-        <v>7348.196889783454</v>
+        <v>42849.48664692949</v>
       </c>
       <c r="G245" t="n">
-        <v>12246.99481630576</v>
+        <v>71415.81107821579</v>
       </c>
     </row>
     <row r="246">
@@ -7561,13 +7561,13 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>8242.42190811689</v>
+        <v>48063.97443994206</v>
       </c>
       <c r="F246" t="n">
-        <v>6181.816431087668</v>
+        <v>36047.98082995655</v>
       </c>
       <c r="G246" t="n">
-        <v>10303.02738514611</v>
+        <v>60079.96804992757</v>
       </c>
     </row>
     <row r="247">
@@ -7590,13 +7590,13 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>5546.787070242184</v>
+        <v>32344.93877404906</v>
       </c>
       <c r="F247" t="n">
-        <v>4160.090302681639</v>
+        <v>24258.70408053679</v>
       </c>
       <c r="G247" t="n">
-        <v>6933.483837802731</v>
+        <v>40431.17346756133</v>
       </c>
     </row>
     <row r="248">
@@ -7619,13 +7619,13 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>43488.88748907444</v>
+        <v>112680.7901253138</v>
       </c>
       <c r="F248" t="n">
-        <v>32616.66561680584</v>
+        <v>84510.59259398536</v>
       </c>
       <c r="G248" t="n">
-        <v>54361.10936134306</v>
+        <v>140850.9876566423</v>
       </c>
     </row>
     <row r="249">
@@ -7648,13 +7648,13 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>26866.46827102821</v>
+        <v>69611.68812186054</v>
       </c>
       <c r="F249" t="n">
-        <v>20149.85120327116</v>
+        <v>52208.7660913954</v>
       </c>
       <c r="G249" t="n">
-        <v>33583.08533878527</v>
+        <v>87014.61015232568</v>
       </c>
     </row>
     <row r="250">
@@ -7677,13 +7677,13 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>14496.29582969148</v>
+        <v>37560.26337510461</v>
       </c>
       <c r="F250" t="n">
-        <v>10872.22187226861</v>
+        <v>28170.19753132845</v>
       </c>
       <c r="G250" t="n">
-        <v>18120.36978711435</v>
+        <v>46950.32921888076</v>
       </c>
     </row>
     <row r="251">
@@ -7706,13 +7706,13 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>9132.666372705635</v>
+        <v>23662.9659263159</v>
       </c>
       <c r="F251" t="n">
-        <v>6849.499779529226</v>
+        <v>17747.22444473693</v>
       </c>
       <c r="G251" t="n">
-        <v>11415.83296588204</v>
+        <v>29578.70740789488</v>
       </c>
     </row>
     <row r="252">
@@ -7735,13 +7735,13 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>7683.036789736487</v>
+        <v>19906.93958880544</v>
       </c>
       <c r="F252" t="n">
-        <v>5762.277592302365</v>
+        <v>14930.20469160408</v>
       </c>
       <c r="G252" t="n">
-        <v>9603.795987170606</v>
+        <v>24883.6744860068</v>
       </c>
     </row>
     <row r="253">
@@ -7764,13 +7764,13 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>5170.345512589963</v>
+        <v>13396.49393712064</v>
       </c>
       <c r="F253" t="n">
-        <v>3877.759134442472</v>
+        <v>10047.37045284048</v>
       </c>
       <c r="G253" t="n">
-        <v>6462.931890737453</v>
+        <v>16745.6174214008</v>
       </c>
     </row>
     <row r="254">
@@ -7793,13 +7793,13 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>49389.31281858461</v>
+        <v>264922.3952719671</v>
       </c>
       <c r="F254" t="n">
-        <v>37041.98461393846</v>
+        <v>198691.7964539754</v>
       </c>
       <c r="G254" t="n">
-        <v>61736.64102323077</v>
+        <v>331152.994089959</v>
       </c>
     </row>
     <row r="255">
@@ -7822,13 +7822,13 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>30511.61991903672</v>
+        <v>163663.1686346819</v>
       </c>
       <c r="F255" t="n">
-        <v>22883.71493927754</v>
+        <v>122747.3764760115</v>
       </c>
       <c r="G255" t="n">
-        <v>38139.5248987959</v>
+        <v>204578.9607933524</v>
       </c>
     </row>
     <row r="256">
@@ -7851,13 +7851,13 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>16463.10427286154</v>
+        <v>88307.46509065572</v>
       </c>
       <c r="F256" t="n">
-        <v>12347.32820464615</v>
+        <v>66230.59881799178</v>
       </c>
       <c r="G256" t="n">
-        <v>20578.88034107692</v>
+        <v>110384.3313633197</v>
       </c>
     </row>
     <row r="257">
@@ -7880,13 +7880,13 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>10371.75569190277</v>
+        <v>55633.70300711311</v>
       </c>
       <c r="F257" t="n">
-        <v>7778.816768927077</v>
+        <v>41725.27725533483</v>
       </c>
       <c r="G257" t="n">
-        <v>12964.69461487846</v>
+        <v>69542.12875889138</v>
       </c>
     </row>
     <row r="258">
@@ -7909,13 +7909,13 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>8725.445264616616</v>
+        <v>46802.95649804753</v>
       </c>
       <c r="F258" t="n">
-        <v>6544.083948462461</v>
+        <v>35102.21737353565</v>
       </c>
       <c r="G258" t="n">
-        <v>10906.80658077077</v>
+        <v>58503.69562255941</v>
       </c>
     </row>
     <row r="259">
@@ -7938,13 +7938,13 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>5871.840523987282</v>
+        <v>31496.32921566721</v>
       </c>
       <c r="F259" t="n">
-        <v>4403.880392990462</v>
+        <v>23622.2469117504</v>
       </c>
       <c r="G259" t="n">
-        <v>7339.800654984102</v>
+        <v>39370.41151958401</v>
       </c>
     </row>
     <row r="260">
@@ -7967,13 +7967,13 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>49396.7337886895</v>
+        <v>194641.3095504626</v>
       </c>
       <c r="F260" t="n">
-        <v>37047.55034151713</v>
+        <v>145980.982162847</v>
       </c>
       <c r="G260" t="n">
-        <v>61745.91723586187</v>
+        <v>243301.6369380783</v>
       </c>
     </row>
     <row r="261">
@@ -7996,13 +7996,13 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>30516.20442945707</v>
+        <v>120245.0756778413</v>
       </c>
       <c r="F261" t="n">
-        <v>22887.1533220928</v>
+        <v>90183.806758381</v>
       </c>
       <c r="G261" t="n">
-        <v>38145.25553682134</v>
+        <v>150306.3445973017</v>
       </c>
     </row>
     <row r="262">
@@ -8025,13 +8025,13 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>16465.57792956317</v>
+        <v>64880.43651682088</v>
       </c>
       <c r="F262" t="n">
-        <v>12349.18344717237</v>
+        <v>48660.32738761565</v>
       </c>
       <c r="G262" t="n">
-        <v>20581.97241195396</v>
+        <v>81100.54564602608</v>
       </c>
     </row>
     <row r="263">
@@ -8054,13 +8054,13 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>10373.3140956248</v>
+        <v>40874.67500559715</v>
       </c>
       <c r="F263" t="n">
-        <v>7779.985571718596</v>
+        <v>30656.00625419786</v>
       </c>
       <c r="G263" t="n">
-        <v>12966.64261953099</v>
+        <v>51093.34375699643</v>
       </c>
     </row>
     <row r="264">
@@ -8083,13 +8083,13 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>8726.756302668478</v>
+        <v>34386.63135391506</v>
       </c>
       <c r="F264" t="n">
-        <v>6545.067227001358</v>
+        <v>25789.9735154363</v>
       </c>
       <c r="G264" t="n">
-        <v>10908.4453783356</v>
+        <v>42983.28919239382</v>
       </c>
     </row>
     <row r="265">
@@ -8112,13 +8112,13 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>5872.72279487753</v>
+        <v>23140.68902433278</v>
       </c>
       <c r="F265" t="n">
-        <v>4404.542096158148</v>
+        <v>17355.51676824958</v>
       </c>
       <c r="G265" t="n">
-        <v>7340.903493596911</v>
+        <v>28925.86128041597</v>
       </c>
     </row>
     <row r="266">
@@ -8141,13 +8141,13 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>49395.07981485825</v>
+        <v>127705.6842621327</v>
       </c>
       <c r="F266" t="n">
-        <v>37046.30986114369</v>
+        <v>95779.26319659954</v>
       </c>
       <c r="G266" t="n">
-        <v>61743.84976857282</v>
+        <v>159632.1053276659</v>
       </c>
     </row>
     <row r="267">
@@ -8170,13 +8170,13 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>30515.1826411791</v>
+        <v>78893.73383305088</v>
       </c>
       <c r="F267" t="n">
-        <v>22886.38698088433</v>
+        <v>59170.30037478817</v>
       </c>
       <c r="G267" t="n">
-        <v>38143.97830147388</v>
+        <v>98617.16729131361</v>
       </c>
     </row>
     <row r="268">
@@ -8199,13 +8199,13 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>16465.02660495275</v>
+        <v>42568.56142071091</v>
       </c>
       <c r="F268" t="n">
-        <v>12348.76995371456</v>
+        <v>31926.42106553318</v>
       </c>
       <c r="G268" t="n">
-        <v>20581.28325619094</v>
+        <v>53210.70177588864</v>
       </c>
     </row>
     <row r="269">
@@ -8228,13 +8228,13 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>10372.96676112023</v>
+        <v>26818.19369504788</v>
       </c>
       <c r="F269" t="n">
-        <v>7779.725070840176</v>
+        <v>20113.64527128591</v>
       </c>
       <c r="G269" t="n">
-        <v>12966.20845140029</v>
+        <v>33522.74211880984</v>
       </c>
     </row>
     <row r="270">
@@ -8257,13 +8257,13 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>8726.464100624959</v>
+        <v>22561.33755297678</v>
       </c>
       <c r="F270" t="n">
-        <v>6544.848075468719</v>
+        <v>16921.00316473259</v>
       </c>
       <c r="G270" t="n">
-        <v>10908.0801257812</v>
+        <v>28201.67194122098</v>
       </c>
     </row>
     <row r="271">
@@ -8286,13 +8286,13 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>5872.526155766482</v>
+        <v>15182.78690672022</v>
       </c>
       <c r="F271" t="n">
-        <v>4404.394616824862</v>
+        <v>11387.09018004017</v>
       </c>
       <c r="G271" t="n">
-        <v>7340.657694708102</v>
+        <v>18978.48363340028</v>
       </c>
     </row>
     <row r="272">
@@ -8315,13 +8315,13 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>49396.52025061573</v>
+        <v>85646.36160525108</v>
       </c>
       <c r="F272" t="n">
-        <v>37047.3901879618</v>
+        <v>64234.7712039383</v>
       </c>
       <c r="G272" t="n">
-        <v>61745.65031326967</v>
+        <v>107057.9520065638</v>
       </c>
     </row>
     <row r="273">
@@ -8344,13 +8344,13 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>30516.07251038039</v>
+        <v>52910.41894724399</v>
       </c>
       <c r="F273" t="n">
-        <v>22887.05438278529</v>
+        <v>39682.814210433</v>
       </c>
       <c r="G273" t="n">
-        <v>38145.09063797548</v>
+        <v>66138.02368405499</v>
       </c>
     </row>
     <row r="274">
@@ -8373,13 +8373,13 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>16465.50675020524</v>
+        <v>28548.78720175035</v>
       </c>
       <c r="F274" t="n">
-        <v>12349.13006265393</v>
+        <v>21411.59040131277</v>
       </c>
       <c r="G274" t="n">
-        <v>20581.88343775655</v>
+        <v>35685.98400218795</v>
       </c>
     </row>
     <row r="275">
@@ -8402,13 +8402,13 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>10373.2692526293</v>
+        <v>17985.73593710273</v>
       </c>
       <c r="F275" t="n">
-        <v>7779.951939471977</v>
+        <v>13489.30195282705</v>
       </c>
       <c r="G275" t="n">
-        <v>12966.58656578663</v>
+        <v>22482.1699213784</v>
       </c>
     </row>
     <row r="276">
@@ -8431,13 +8431,13 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>8726.718577608779</v>
+        <v>15130.85721692769</v>
       </c>
       <c r="F276" t="n">
-        <v>6545.038933206584</v>
+        <v>11348.14291269577</v>
       </c>
       <c r="G276" t="n">
-        <v>10908.39822201097</v>
+        <v>18913.57152115961</v>
       </c>
     </row>
     <row r="277">
@@ -8460,13 +8460,13 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>5872.697407573202</v>
+        <v>10182.40076862429</v>
       </c>
       <c r="F277" t="n">
-        <v>4404.523055679903</v>
+        <v>7636.80057646822</v>
       </c>
       <c r="G277" t="n">
-        <v>7340.871759466504</v>
+        <v>12728.00096078037</v>
       </c>
     </row>
     <row r="278">
@@ -8489,13 +8489,13 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>49391.4832885759</v>
+        <v>67774.7854575314</v>
       </c>
       <c r="F278" t="n">
-        <v>37043.61246643192</v>
+        <v>50831.08909314855</v>
       </c>
       <c r="G278" t="n">
-        <v>61739.35411071987</v>
+        <v>84718.48182191423</v>
       </c>
     </row>
     <row r="279">
@@ -8518,13 +8518,13 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>30512.96078716466</v>
+        <v>41869.7563493194</v>
       </c>
       <c r="F279" t="n">
-        <v>22884.7205903735</v>
+        <v>31402.31726198954</v>
       </c>
       <c r="G279" t="n">
-        <v>38141.20098395584</v>
+        <v>52337.19543664924</v>
       </c>
     </row>
     <row r="280">
@@ -8547,13 +8547,13 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>16463.82776285863</v>
+        <v>22591.59515251047</v>
       </c>
       <c r="F280" t="n">
-        <v>12347.87082214397</v>
+        <v>16943.69636438285</v>
       </c>
       <c r="G280" t="n">
-        <v>20579.78470357329</v>
+        <v>28239.49394063808</v>
       </c>
     </row>
     <row r="281">
@@ -8576,13 +8576,13 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>10372.21149060094</v>
+        <v>14232.70494608159</v>
       </c>
       <c r="F281" t="n">
-        <v>7779.158617950704</v>
+        <v>10674.5287095612</v>
       </c>
       <c r="G281" t="n">
-        <v>12965.26436325117</v>
+        <v>17790.88118260199</v>
       </c>
     </row>
     <row r="282">
@@ -8605,13 +8605,13 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>8725.828714315076</v>
+        <v>11973.54543083055</v>
       </c>
       <c r="F282" t="n">
-        <v>6544.371535736307</v>
+        <v>8980.159073122912</v>
       </c>
       <c r="G282" t="n">
-        <v>10907.28589289384</v>
+        <v>14966.93178853818</v>
       </c>
     </row>
     <row r="283">
@@ -8634,13 +8634,13 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>5872.098568752912</v>
+        <v>8057.668937728732</v>
       </c>
       <c r="F283" t="n">
-        <v>4404.073926564684</v>
+        <v>6043.251703296549</v>
       </c>
       <c r="G283" t="n">
-        <v>7340.12321094114</v>
+        <v>10072.08617216091</v>
       </c>
     </row>
     <row r="284">
@@ -8663,13 +8663,13 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>46655.21834783145</v>
+        <v>242691.912855697</v>
       </c>
       <c r="F284" t="n">
-        <v>34991.41376087359</v>
+        <v>182018.9346417728</v>
       </c>
       <c r="G284" t="n">
-        <v>58319.02293478932</v>
+        <v>303364.8910696213</v>
       </c>
     </row>
     <row r="285">
@@ -8692,13 +8692,13 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>28822.55711266032</v>
+        <v>149929.6706086306</v>
       </c>
       <c r="F285" t="n">
-        <v>21616.91783449524</v>
+        <v>112447.252956473</v>
       </c>
       <c r="G285" t="n">
-        <v>36028.1963908254</v>
+        <v>187412.0882607883</v>
       </c>
     </row>
     <row r="286">
@@ -8721,13 +8721,13 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>15551.73944927715</v>
+        <v>80897.30428523236</v>
       </c>
       <c r="F286" t="n">
-        <v>11663.80458695786</v>
+        <v>60672.97821392426</v>
       </c>
       <c r="G286" t="n">
-        <v>19439.67431159644</v>
+        <v>101121.6303565405</v>
       </c>
     </row>
     <row r="287">
@@ -8750,13 +8750,13 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>9797.595853044606</v>
+        <v>50965.30169969639</v>
       </c>
       <c r="F287" t="n">
-        <v>7348.196889783454</v>
+        <v>38223.97627477229</v>
       </c>
       <c r="G287" t="n">
-        <v>12246.99481630576</v>
+        <v>63706.62712462047</v>
       </c>
     </row>
     <row r="288">
@@ -8779,13 +8779,13 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>8242.42190811689</v>
+        <v>42875.57127117315</v>
       </c>
       <c r="F288" t="n">
-        <v>6181.816431087668</v>
+        <v>32156.67845337986</v>
       </c>
       <c r="G288" t="n">
-        <v>10303.02738514611</v>
+        <v>53594.46408896644</v>
       </c>
     </row>
     <row r="289">
@@ -8808,13 +8808,13 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>5546.787070242184</v>
+        <v>28853.37186173287</v>
       </c>
       <c r="F289" t="n">
-        <v>4160.090302681639</v>
+        <v>21640.02889629965</v>
       </c>
       <c r="G289" t="n">
-        <v>6933.483837802731</v>
+        <v>36066.71482716608</v>
       </c>
     </row>
     <row r="290">
@@ -8837,13 +8837,13 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>43488.88748907444</v>
+        <v>109557.4444668878</v>
       </c>
       <c r="F290" t="n">
-        <v>32616.66561680584</v>
+        <v>82168.08335016583</v>
       </c>
       <c r="G290" t="n">
-        <v>54361.10936134306</v>
+        <v>136946.8055836097</v>
       </c>
     </row>
     <row r="291">
@@ -8866,13 +8866,13 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>26866.46827102821</v>
+        <v>67682.15458176623</v>
       </c>
       <c r="F291" t="n">
-        <v>20149.85120327116</v>
+        <v>50761.61593632467</v>
       </c>
       <c r="G291" t="n">
-        <v>33583.08533878527</v>
+        <v>84602.69322720778</v>
       </c>
     </row>
     <row r="292">
@@ -8895,13 +8895,13 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>14496.29582969148</v>
+        <v>36519.14815562926</v>
       </c>
       <c r="F292" t="n">
-        <v>10872.22187226861</v>
+        <v>27389.36111672194</v>
       </c>
       <c r="G292" t="n">
-        <v>18120.36978711435</v>
+        <v>45648.93519453657</v>
       </c>
     </row>
     <row r="293">
@@ -8924,13 +8924,13 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>9132.666372705635</v>
+        <v>23007.06333804644</v>
       </c>
       <c r="F293" t="n">
-        <v>6849.499779529226</v>
+        <v>17255.29750353483</v>
       </c>
       <c r="G293" t="n">
-        <v>11415.83296588204</v>
+        <v>28758.82917255804</v>
       </c>
     </row>
     <row r="294">
@@ -8953,13 +8953,13 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>7683.036789736487</v>
+        <v>19355.14852248351</v>
       </c>
       <c r="F294" t="n">
-        <v>5762.277592302365</v>
+        <v>14516.36139186263</v>
       </c>
       <c r="G294" t="n">
-        <v>9603.795987170606</v>
+        <v>24193.93565310438</v>
       </c>
     </row>
     <row r="295">
@@ -8982,13 +8982,13 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>5170.345512589963</v>
+        <v>13025.16284217444</v>
       </c>
       <c r="F295" t="n">
-        <v>3877.759134442472</v>
+        <v>9768.872131630827</v>
       </c>
       <c r="G295" t="n">
-        <v>6462.931890737453</v>
+        <v>16281.45355271804</v>
       </c>
     </row>
     <row r="296">
@@ -9011,13 +9011,13 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>49389.31281858461</v>
+        <v>330127.7779543403</v>
       </c>
       <c r="F296" t="n">
-        <v>37041.98461393846</v>
+        <v>247595.8334657552</v>
       </c>
       <c r="G296" t="n">
-        <v>61736.64102323077</v>
+        <v>412659.7224429253</v>
       </c>
     </row>
     <row r="297">
@@ -9040,13 +9040,13 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>30511.61991903672</v>
+        <v>203945.605047348</v>
       </c>
       <c r="F297" t="n">
-        <v>22883.71493927754</v>
+        <v>152959.203785511</v>
       </c>
       <c r="G297" t="n">
-        <v>38139.5248987959</v>
+        <v>254932.006309185</v>
       </c>
     </row>
     <row r="298">
@@ -9069,13 +9069,13 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>16463.10427286154</v>
+        <v>110042.5926514468</v>
       </c>
       <c r="F298" t="n">
-        <v>12347.32820464615</v>
+        <v>82531.94448858507</v>
       </c>
       <c r="G298" t="n">
-        <v>20578.88034107692</v>
+        <v>137553.2408143085</v>
       </c>
     </row>
     <row r="299">
@@ -9098,13 +9098,13 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>10371.75569190277</v>
+        <v>69326.83337041146</v>
       </c>
       <c r="F299" t="n">
-        <v>7778.816768927077</v>
+        <v>51995.12502780859</v>
       </c>
       <c r="G299" t="n">
-        <v>12964.69461487846</v>
+        <v>86658.54171301432</v>
       </c>
     </row>
     <row r="300">
@@ -9127,13 +9127,13 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>8725.445264616616</v>
+        <v>58322.57410526678</v>
       </c>
       <c r="F300" t="n">
-        <v>6544.083948462461</v>
+        <v>43741.93057895009</v>
       </c>
       <c r="G300" t="n">
-        <v>10906.80658077077</v>
+        <v>72903.21763158348</v>
       </c>
     </row>
     <row r="301">
@@ -9156,13 +9156,13 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>5871.840523987282</v>
+        <v>39248.52471234934</v>
       </c>
       <c r="F301" t="n">
-        <v>4403.880392990462</v>
+        <v>29436.39353426201</v>
       </c>
       <c r="G301" t="n">
-        <v>7339.800654984102</v>
+        <v>49060.65589043668</v>
       </c>
     </row>
     <row r="302">
@@ -9185,13 +9185,13 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>49396.7337886895</v>
+        <v>261179.7683647639</v>
       </c>
       <c r="F302" t="n">
-        <v>37047.55034151713</v>
+        <v>195884.8262735729</v>
       </c>
       <c r="G302" t="n">
-        <v>61745.91723586187</v>
+        <v>326474.7104559549</v>
       </c>
     </row>
     <row r="303">
@@ -9214,13 +9214,13 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>30516.20442945707</v>
+        <v>161351.0569008986</v>
       </c>
       <c r="F303" t="n">
-        <v>22887.1533220928</v>
+        <v>121013.2926756739</v>
       </c>
       <c r="G303" t="n">
-        <v>38145.25553682134</v>
+        <v>201688.8211261232</v>
       </c>
     </row>
     <row r="304">
@@ -9243,13 +9243,13 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>16465.57792956317</v>
+        <v>87059.92278825465</v>
       </c>
       <c r="F304" t="n">
-        <v>12349.18344717237</v>
+        <v>65294.94209119097</v>
       </c>
       <c r="G304" t="n">
-        <v>20581.97241195396</v>
+        <v>108824.9034853183</v>
       </c>
     </row>
     <row r="305">
@@ -9272,13 +9272,13 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>10373.3140956248</v>
+        <v>54847.75135660043</v>
       </c>
       <c r="F305" t="n">
-        <v>7779.985571718596</v>
+        <v>41135.81351745032</v>
       </c>
       <c r="G305" t="n">
-        <v>12966.64261953099</v>
+        <v>68559.68919575053</v>
       </c>
     </row>
     <row r="306">
@@ -9301,13 +9301,13 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>8726.756302668478</v>
+        <v>46141.75907777496</v>
       </c>
       <c r="F306" t="n">
-        <v>6545.067227001358</v>
+        <v>34606.31930833122</v>
       </c>
       <c r="G306" t="n">
-        <v>10908.4453783356</v>
+        <v>57677.19884721869</v>
       </c>
     </row>
     <row r="307">
@@ -9330,13 +9330,13 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>5872.72279487753</v>
+        <v>31051.37246114415</v>
       </c>
       <c r="F307" t="n">
-        <v>4404.542096158148</v>
+        <v>23288.52934585812</v>
       </c>
       <c r="G307" t="n">
-        <v>7340.903493596911</v>
+        <v>38814.21557643019</v>
       </c>
     </row>
     <row r="308">
@@ -9359,13 +9359,13 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>49395.07981485825</v>
+        <v>180405.3046897317</v>
       </c>
       <c r="F308" t="n">
-        <v>37046.30986114369</v>
+        <v>135303.9785172988</v>
       </c>
       <c r="G308" t="n">
-        <v>61743.84976857282</v>
+        <v>225506.6308621646</v>
       </c>
     </row>
     <row r="309">
@@ -9388,13 +9388,13 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>30515.1826411791</v>
+        <v>111450.3882305453</v>
       </c>
       <c r="F309" t="n">
-        <v>22886.38698088433</v>
+        <v>83587.791172909</v>
       </c>
       <c r="G309" t="n">
-        <v>38143.97830147388</v>
+        <v>139312.9852881817</v>
       </c>
     </row>
     <row r="310">
@@ -9417,13 +9417,13 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>16465.02660495275</v>
+        <v>60135.10156324389</v>
       </c>
       <c r="F310" t="n">
-        <v>12348.76995371456</v>
+        <v>45101.32617243291</v>
       </c>
       <c r="G310" t="n">
-        <v>20581.28325619094</v>
+        <v>75168.87695405487</v>
       </c>
     </row>
     <row r="311">
@@ -9446,13 +9446,13 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>10372.96676112023</v>
+        <v>37885.11398484366</v>
       </c>
       <c r="F311" t="n">
-        <v>7779.725070840176</v>
+        <v>28413.83548863274</v>
       </c>
       <c r="G311" t="n">
-        <v>12966.20845140029</v>
+        <v>47356.39248105456</v>
       </c>
     </row>
     <row r="312">
@@ -9475,13 +9475,13 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>8726.464100624959</v>
+        <v>31871.60382851926</v>
       </c>
       <c r="F312" t="n">
-        <v>6544.848075468719</v>
+        <v>23903.70287138945</v>
       </c>
       <c r="G312" t="n">
-        <v>10908.0801257812</v>
+        <v>39839.50478564907</v>
       </c>
     </row>
     <row r="313">
@@ -9504,13 +9504,13 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>5872.526155766482</v>
+        <v>21448.18622422366</v>
       </c>
       <c r="F313" t="n">
-        <v>4404.394616824862</v>
+        <v>16086.13966816774</v>
       </c>
       <c r="G313" t="n">
-        <v>7340.657694708102</v>
+        <v>26810.23278027956</v>
       </c>
     </row>
     <row r="314">
@@ -9533,13 +9533,13 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>49396.52025061573</v>
+        <v>124453.0042065645</v>
       </c>
       <c r="F314" t="n">
-        <v>37047.3901879618</v>
+        <v>93339.7531549234</v>
       </c>
       <c r="G314" t="n">
-        <v>61745.65031326967</v>
+        <v>155566.2552582057</v>
       </c>
     </row>
     <row r="315">
@@ -9562,13 +9562,13 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>30516.07251038039</v>
+        <v>76884.30037649986</v>
       </c>
       <c r="F315" t="n">
-        <v>22887.05438278529</v>
+        <v>57663.2252823749</v>
       </c>
       <c r="G315" t="n">
-        <v>38145.09063797548</v>
+        <v>96105.37547062484</v>
       </c>
     </row>
     <row r="316">
@@ -9591,13 +9591,13 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>16465.50675020524</v>
+        <v>41484.33473552152</v>
       </c>
       <c r="F316" t="n">
-        <v>12349.13006265393</v>
+        <v>31113.25105164113</v>
       </c>
       <c r="G316" t="n">
-        <v>20581.88343775655</v>
+        <v>51855.41841940189</v>
       </c>
     </row>
     <row r="317">
@@ -9620,13 +9620,13 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>10373.2692526293</v>
+        <v>26135.13088337856</v>
       </c>
       <c r="F317" t="n">
-        <v>7779.951939471977</v>
+        <v>19601.34816253392</v>
       </c>
       <c r="G317" t="n">
-        <v>12966.58656578663</v>
+        <v>32668.91360422319</v>
       </c>
     </row>
     <row r="318">
@@ -9649,13 +9649,13 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>8726.718577608779</v>
+        <v>21986.6974098264</v>
       </c>
       <c r="F318" t="n">
-        <v>6545.038933206584</v>
+        <v>16490.0230573698</v>
       </c>
       <c r="G318" t="n">
-        <v>10908.39822201097</v>
+        <v>27483.371762283</v>
       </c>
     </row>
     <row r="319">
@@ -9678,13 +9678,13 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>5872.697407573202</v>
+        <v>14796.07938900267</v>
       </c>
       <c r="F319" t="n">
-        <v>4404.523055679903</v>
+        <v>11097.05954175201</v>
       </c>
       <c r="G319" t="n">
-        <v>7340.871759466504</v>
+        <v>18495.09923625334</v>
       </c>
     </row>
     <row r="320">
@@ -9707,13 +9707,13 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>49391.4832885759</v>
+        <v>101952.2189073946</v>
       </c>
       <c r="F320" t="n">
-        <v>37043.61246643192</v>
+        <v>76464.16418054598</v>
       </c>
       <c r="G320" t="n">
-        <v>61739.35411071987</v>
+        <v>127440.2736342433</v>
       </c>
     </row>
     <row r="321">
@@ -9736,13 +9736,13 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>30512.96078716466</v>
+        <v>62983.8152361238</v>
       </c>
       <c r="F321" t="n">
-        <v>22884.7205903735</v>
+        <v>47237.86142709284</v>
       </c>
       <c r="G321" t="n">
-        <v>38141.20098395584</v>
+        <v>78729.76904515475</v>
       </c>
     </row>
     <row r="322">
@@ -9765,13 +9765,13 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>16463.82776285863</v>
+        <v>33984.07296913155</v>
       </c>
       <c r="F322" t="n">
-        <v>12347.87082214397</v>
+        <v>25488.05472684866</v>
       </c>
       <c r="G322" t="n">
-        <v>20579.78470357329</v>
+        <v>42480.09121141444</v>
       </c>
     </row>
     <row r="323">
@@ -9794,13 +9794,13 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>10372.21149060094</v>
+        <v>21409.96597055288</v>
       </c>
       <c r="F323" t="n">
-        <v>7779.158617950704</v>
+        <v>16057.47447791466</v>
       </c>
       <c r="G323" t="n">
-        <v>12965.26436325117</v>
+        <v>26762.45746319109</v>
       </c>
     </row>
     <row r="324">
@@ -9823,13 +9823,13 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>8725.828714315076</v>
+        <v>18011.55867363972</v>
       </c>
       <c r="F324" t="n">
-        <v>6544.371535736307</v>
+        <v>13508.66900522979</v>
       </c>
       <c r="G324" t="n">
-        <v>10907.28589289384</v>
+        <v>22514.44834204965</v>
       </c>
     </row>
     <row r="325">
@@ -9852,13 +9852,13 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>5872.098568752912</v>
+        <v>12120.98602565692</v>
       </c>
       <c r="F325" t="n">
-        <v>4404.073926564684</v>
+        <v>9090.739519242688</v>
       </c>
       <c r="G325" t="n">
-        <v>7340.12321094114</v>
+        <v>15151.23253207115</v>
       </c>
     </row>
     <row r="326">
@@ -9881,13 +9881,13 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>46655.21834783145</v>
+        <v>273233.3504080087</v>
       </c>
       <c r="F326" t="n">
-        <v>34991.41376087359</v>
+        <v>204925.0128060065</v>
       </c>
       <c r="G326" t="n">
-        <v>58319.02293478932</v>
+        <v>341541.6880100109</v>
       </c>
     </row>
     <row r="327">
@@ -9910,13 +9910,13 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>28822.55711266032</v>
+        <v>168797.4920298365</v>
       </c>
       <c r="F327" t="n">
-        <v>21616.91783449524</v>
+        <v>126598.1190223773</v>
       </c>
       <c r="G327" t="n">
-        <v>36028.1963908254</v>
+        <v>210996.8650372956</v>
       </c>
     </row>
     <row r="328">
@@ -9939,13 +9939,13 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>15551.73944927715</v>
+        <v>91077.78346933622</v>
       </c>
       <c r="F328" t="n">
-        <v>11663.80458695786</v>
+        <v>68308.33760200217</v>
       </c>
       <c r="G328" t="n">
-        <v>19439.67431159644</v>
+        <v>113847.2293366703</v>
       </c>
     </row>
     <row r="329">
@@ -9968,13 +9968,13 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>9797.595853044606</v>
+        <v>57379.00358568183</v>
       </c>
       <c r="F329" t="n">
-        <v>7348.196889783454</v>
+        <v>43034.25268926137</v>
       </c>
       <c r="G329" t="n">
-        <v>12246.99481630576</v>
+        <v>71723.75448210227</v>
       </c>
     </row>
     <row r="330">
@@ -9997,13 +9997,13 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>8242.42190811689</v>
+        <v>48271.2252387482</v>
       </c>
       <c r="F330" t="n">
-        <v>6181.816431087668</v>
+        <v>36203.41892906115</v>
       </c>
       <c r="G330" t="n">
-        <v>10303.02738514611</v>
+        <v>60339.03154843525</v>
       </c>
     </row>
     <row r="331">
@@ -10026,13 +10026,13 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>5546.787070242184</v>
+        <v>32484.40943739659</v>
       </c>
       <c r="F331" t="n">
-        <v>4160.090302681639</v>
+        <v>24363.30707804744</v>
       </c>
       <c r="G331" t="n">
-        <v>6933.483837802731</v>
+        <v>40605.51179674573</v>
       </c>
     </row>
     <row r="332">
@@ -10055,13 +10055,13 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>43488.88748907444</v>
+        <v>112778.2696671498</v>
       </c>
       <c r="F332" t="n">
-        <v>32616.66561680584</v>
+        <v>84583.70225036236</v>
       </c>
       <c r="G332" t="n">
-        <v>54361.10936134306</v>
+        <v>140972.8370839373</v>
       </c>
     </row>
     <row r="333">
@@ -10084,13 +10084,13 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>26866.46827102821</v>
+        <v>69671.90881659478</v>
       </c>
       <c r="F333" t="n">
-        <v>20149.85120327116</v>
+        <v>52253.93161244608</v>
       </c>
       <c r="G333" t="n">
-        <v>33583.08533878527</v>
+        <v>87089.88602074348</v>
       </c>
     </row>
     <row r="334">
@@ -10113,13 +10113,13 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>14496.29582969148</v>
+        <v>37592.75655571661</v>
       </c>
       <c r="F334" t="n">
-        <v>10872.22187226861</v>
+        <v>28194.56741678746</v>
       </c>
       <c r="G334" t="n">
-        <v>18120.36978711435</v>
+        <v>46990.94569464576</v>
       </c>
     </row>
     <row r="335">
@@ -10142,13 +10142,13 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>9132.666372705635</v>
+        <v>23683.43663010146</v>
       </c>
       <c r="F335" t="n">
-        <v>6849.499779529226</v>
+        <v>17762.5774725761</v>
       </c>
       <c r="G335" t="n">
-        <v>11415.83296588204</v>
+        <v>29604.29578762683</v>
       </c>
     </row>
     <row r="336">
@@ -10171,13 +10171,13 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>7683.036789736487</v>
+        <v>19924.1609745298</v>
       </c>
       <c r="F336" t="n">
-        <v>5762.277592302365</v>
+        <v>14943.12073089735</v>
       </c>
       <c r="G336" t="n">
-        <v>9603.795987170606</v>
+        <v>24905.20121816225</v>
       </c>
     </row>
     <row r="337">
@@ -10200,13 +10200,13 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>5170.345512589963</v>
+        <v>13408.08317153892</v>
       </c>
       <c r="F337" t="n">
-        <v>3877.759134442472</v>
+        <v>10056.06237865419</v>
       </c>
       <c r="G337" t="n">
-        <v>6462.931890737453</v>
+        <v>16760.10396442365</v>
       </c>
     </row>
     <row r="338">
@@ -10229,13 +10229,13 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>49389.31281858461</v>
+        <v>311575.2513676776</v>
       </c>
       <c r="F338" t="n">
-        <v>37041.98461393846</v>
+        <v>233681.4385257582</v>
       </c>
       <c r="G338" t="n">
-        <v>61736.64102323077</v>
+        <v>389469.0642095971</v>
       </c>
     </row>
     <row r="339">
@@ -10258,13 +10258,13 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>30511.61991903672</v>
+        <v>192484.2664004764</v>
       </c>
       <c r="F339" t="n">
-        <v>22883.71493927754</v>
+        <v>144363.1998003573</v>
       </c>
       <c r="G339" t="n">
-        <v>38139.5248987959</v>
+        <v>240605.3330005955</v>
       </c>
     </row>
     <row r="340">
@@ -10287,13 +10287,13 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>16463.10427286154</v>
+        <v>103858.4171225592</v>
       </c>
       <c r="F340" t="n">
-        <v>12347.32820464615</v>
+        <v>77893.8128419194</v>
       </c>
       <c r="G340" t="n">
-        <v>20578.88034107692</v>
+        <v>129823.021403199</v>
       </c>
     </row>
     <row r="341">
@@ -10316,13 +10316,13 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>10371.75569190277</v>
+        <v>65430.80278721231</v>
       </c>
       <c r="F341" t="n">
-        <v>7778.816768927077</v>
+        <v>49073.10209040922</v>
       </c>
       <c r="G341" t="n">
-        <v>12964.69461487846</v>
+        <v>81788.50348401538</v>
       </c>
     </row>
     <row r="342">
@@ -10345,13 +10345,13 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>8725.445264616616</v>
+        <v>55044.96107495638</v>
       </c>
       <c r="F342" t="n">
-        <v>6544.083948462461</v>
+        <v>41283.72080621729</v>
       </c>
       <c r="G342" t="n">
-        <v>10906.80658077077</v>
+        <v>68806.20134369547</v>
       </c>
     </row>
     <row r="343">
@@ -10374,13 +10374,13 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>5871.840523987282</v>
+        <v>37042.83544037945</v>
       </c>
       <c r="F343" t="n">
-        <v>4403.880392990462</v>
+        <v>27782.12658028459</v>
       </c>
       <c r="G343" t="n">
-        <v>7339.800654984102</v>
+        <v>46303.54430047431</v>
       </c>
     </row>
     <row r="344">
@@ -10403,13 +10403,13 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>49396.7337886895</v>
+        <v>241875.213280045</v>
       </c>
       <c r="F344" t="n">
-        <v>37047.55034151713</v>
+        <v>181406.4099600337</v>
       </c>
       <c r="G344" t="n">
-        <v>61745.91723586187</v>
+        <v>302344.0166000562</v>
       </c>
     </row>
     <row r="345">
@@ -10432,13 +10432,13 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>30516.20442945707</v>
+        <v>149425.1317596722</v>
       </c>
       <c r="F345" t="n">
-        <v>22887.1533220928</v>
+        <v>112068.8488197542</v>
       </c>
       <c r="G345" t="n">
-        <v>38145.25553682134</v>
+        <v>186781.4146995903</v>
       </c>
     </row>
     <row r="346">
@@ -10461,13 +10461,13 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>16465.57792956317</v>
+        <v>80625.07109334832</v>
       </c>
       <c r="F346" t="n">
-        <v>12349.18344717237</v>
+        <v>60468.80332001124</v>
       </c>
       <c r="G346" t="n">
-        <v>20581.97241195396</v>
+        <v>100781.3388666854</v>
       </c>
     </row>
     <row r="347">
@@ -10490,13 +10490,13 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>10373.3140956248</v>
+        <v>50793.79478880944</v>
       </c>
       <c r="F347" t="n">
-        <v>7779.985571718596</v>
+        <v>38095.34609160708</v>
       </c>
       <c r="G347" t="n">
-        <v>12966.64261953099</v>
+        <v>63492.2434860118</v>
       </c>
     </row>
     <row r="348">
@@ -10519,13 +10519,13 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>8726.756302668478</v>
+        <v>42731.28767947461</v>
       </c>
       <c r="F348" t="n">
-        <v>6545.067227001358</v>
+        <v>32048.46575960596</v>
       </c>
       <c r="G348" t="n">
-        <v>10908.4453783356</v>
+        <v>53414.10959934325</v>
       </c>
     </row>
     <row r="349">
@@ -10548,13 +10548,13 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>5872.72279487753</v>
+        <v>28756.27535662757</v>
       </c>
       <c r="F349" t="n">
-        <v>4404.542096158148</v>
+        <v>21567.20651747068</v>
       </c>
       <c r="G349" t="n">
-        <v>7340.903493596911</v>
+        <v>35945.34419578446</v>
       </c>
     </row>
     <row r="350">
@@ -10577,13 +10577,13 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>49395.07981485825</v>
+        <v>164830.8604388555</v>
       </c>
       <c r="F350" t="n">
-        <v>37046.30986114369</v>
+        <v>123623.1453291416</v>
       </c>
       <c r="G350" t="n">
-        <v>61743.84976857282</v>
+        <v>206038.5755485694</v>
       </c>
     </row>
     <row r="351">
@@ -10606,13 +10606,13 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>30515.1826411791</v>
+        <v>101828.8426711152</v>
       </c>
       <c r="F351" t="n">
-        <v>22886.38698088433</v>
+        <v>76371.63200333639</v>
       </c>
       <c r="G351" t="n">
-        <v>38143.97830147388</v>
+        <v>127286.053338894</v>
       </c>
     </row>
     <row r="352">
@@ -10635,13 +10635,13 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>16465.02660495275</v>
+        <v>54943.62014628517</v>
       </c>
       <c r="F352" t="n">
-        <v>12348.76995371456</v>
+        <v>41207.71510971388</v>
       </c>
       <c r="G352" t="n">
-        <v>20581.28325619094</v>
+        <v>68679.52518285647</v>
       </c>
     </row>
     <row r="353">
@@ -10664,13 +10664,13 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>10372.96676112023</v>
+        <v>34614.48069215966</v>
       </c>
       <c r="F353" t="n">
-        <v>7779.725070840176</v>
+        <v>25960.86051911975</v>
       </c>
       <c r="G353" t="n">
-        <v>12966.20845140029</v>
+        <v>43268.10086519957</v>
       </c>
     </row>
     <row r="354">
@@ -10693,13 +10693,13 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>8726.464100624959</v>
+        <v>29120.11867753114</v>
       </c>
       <c r="F354" t="n">
-        <v>6544.848075468719</v>
+        <v>21840.08900814836</v>
       </c>
       <c r="G354" t="n">
-        <v>10908.0801257812</v>
+        <v>36400.14834691393</v>
       </c>
     </row>
     <row r="355">
@@ -10722,13 +10722,13 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>5872.526155766482</v>
+        <v>19596.55785217504</v>
       </c>
       <c r="F355" t="n">
-        <v>4404.394616824862</v>
+        <v>14697.41838913128</v>
       </c>
       <c r="G355" t="n">
-        <v>7340.657694708102</v>
+        <v>24495.6973152188</v>
       </c>
     </row>
     <row r="356">
@@ -10751,13 +10751,13 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>49396.52025061573</v>
+        <v>112846.7394237023</v>
       </c>
       <c r="F356" t="n">
-        <v>37047.3901879618</v>
+        <v>84635.05456777677</v>
       </c>
       <c r="G356" t="n">
-        <v>61745.65031326967</v>
+        <v>141058.4242796279</v>
       </c>
     </row>
     <row r="357">
@@ -10780,13 +10780,13 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>30516.07251038039</v>
+        <v>69714.20791064278</v>
       </c>
       <c r="F357" t="n">
-        <v>22887.05438278529</v>
+        <v>52285.65593298209</v>
       </c>
       <c r="G357" t="n">
-        <v>38145.09063797548</v>
+        <v>87142.7598883035</v>
       </c>
     </row>
     <row r="358">
@@ -10809,13 +10809,13 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>16465.50675020524</v>
+        <v>37615.57980790079</v>
       </c>
       <c r="F358" t="n">
-        <v>12349.13006265393</v>
+        <v>28211.68485592558</v>
       </c>
       <c r="G358" t="n">
-        <v>20581.88343775655</v>
+        <v>47019.47475987599</v>
       </c>
     </row>
     <row r="359">
@@ -10838,13 +10838,13 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>10373.2692526293</v>
+        <v>23697.81527897749</v>
       </c>
       <c r="F359" t="n">
-        <v>7779.951939471977</v>
+        <v>17773.36145923312</v>
       </c>
       <c r="G359" t="n">
-        <v>12966.58656578663</v>
+        <v>29622.26909872187</v>
       </c>
     </row>
     <row r="360">
@@ -10867,13 +10867,13 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>8726.718577608779</v>
+        <v>19936.25729818741</v>
       </c>
       <c r="F360" t="n">
-        <v>6545.038933206584</v>
+        <v>14952.19297364056</v>
       </c>
       <c r="G360" t="n">
-        <v>10908.39822201097</v>
+        <v>24920.32162273427</v>
       </c>
     </row>
     <row r="361">
@@ -10896,13 +10896,13 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>5872.697407573202</v>
+        <v>13416.22346481795</v>
       </c>
       <c r="F361" t="n">
-        <v>4404.523055679903</v>
+        <v>10062.16759861346</v>
       </c>
       <c r="G361" t="n">
-        <v>7340.871759466504</v>
+        <v>16770.27933102243</v>
       </c>
     </row>
     <row r="362">
@@ -10925,13 +10925,13 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>49391.4832885759</v>
+        <v>91637.17852038883</v>
       </c>
       <c r="F362" t="n">
-        <v>37043.61246643192</v>
+        <v>68727.88389029163</v>
       </c>
       <c r="G362" t="n">
-        <v>61739.35411071987</v>
+        <v>114546.4731504861</v>
       </c>
     </row>
     <row r="363">
@@ -10954,13 +10954,13 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>30512.96078716466</v>
+        <v>56611.41250815133</v>
       </c>
       <c r="F363" t="n">
-        <v>22884.7205903735</v>
+        <v>42458.5593811135</v>
       </c>
       <c r="G363" t="n">
-        <v>38141.20098395584</v>
+        <v>70764.26563518916</v>
       </c>
     </row>
     <row r="364">
@@ -10983,13 +10983,13 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>16463.82776285863</v>
+        <v>30545.72617346295</v>
       </c>
       <c r="F364" t="n">
-        <v>12347.87082214397</v>
+        <v>22909.29463009721</v>
       </c>
       <c r="G364" t="n">
-        <v>20579.78470357329</v>
+        <v>38182.15771682869</v>
       </c>
     </row>
     <row r="365">
@@ -11012,13 +11012,13 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>10372.21149060094</v>
+        <v>19243.80748928166</v>
       </c>
       <c r="F365" t="n">
-        <v>7779.158617950704</v>
+        <v>14432.85561696124</v>
       </c>
       <c r="G365" t="n">
-        <v>12965.26436325117</v>
+        <v>24054.75936160207</v>
       </c>
     </row>
     <row r="366">
@@ -11041,13 +11041,13 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>8725.828714315076</v>
+        <v>16189.23487193536</v>
       </c>
       <c r="F366" t="n">
-        <v>6544.371535736307</v>
+        <v>12141.92615395152</v>
       </c>
       <c r="G366" t="n">
-        <v>10907.28589289384</v>
+        <v>20236.5435899192</v>
       </c>
     </row>
     <row r="367">
@@ -11070,13 +11070,13 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>5872.098568752912</v>
+        <v>10894.64233520178</v>
       </c>
       <c r="F367" t="n">
-        <v>4404.073926564684</v>
+        <v>8170.981751401338</v>
       </c>
       <c r="G367" t="n">
-        <v>7340.12321094114</v>
+        <v>13618.30291900223</v>
       </c>
     </row>
     <row r="368">
@@ -11099,13 +11099,13 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>46655.21834783145</v>
+        <v>261769.990285452</v>
       </c>
       <c r="F368" t="n">
-        <v>34991.41376087359</v>
+        <v>196327.492714089</v>
       </c>
       <c r="G368" t="n">
-        <v>58319.02293478932</v>
+        <v>327212.487856815</v>
       </c>
     </row>
     <row r="369">
@@ -11128,13 +11128,13 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>28822.55711266032</v>
+        <v>161715.682887457</v>
       </c>
       <c r="F369" t="n">
-        <v>21616.91783449524</v>
+        <v>121286.7621655928</v>
       </c>
       <c r="G369" t="n">
-        <v>36028.1963908254</v>
+        <v>202144.6036093213</v>
       </c>
     </row>
     <row r="370">
@@ -11157,13 +11157,13 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>15551.73944927715</v>
+        <v>87256.66342848403</v>
       </c>
       <c r="F370" t="n">
-        <v>11663.80458695786</v>
+        <v>65442.497571363</v>
       </c>
       <c r="G370" t="n">
-        <v>19439.67431159644</v>
+        <v>109070.829285605</v>
       </c>
     </row>
     <row r="371">
@@ -11186,13 +11186,13 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>9797.595853044606</v>
+        <v>54971.69795994493</v>
       </c>
       <c r="F371" t="n">
-        <v>7348.196889783454</v>
+        <v>41228.77346995869</v>
       </c>
       <c r="G371" t="n">
-        <v>12246.99481630576</v>
+        <v>68714.62244993116</v>
       </c>
     </row>
     <row r="372">
@@ -11215,13 +11215,13 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>8242.42190811689</v>
+        <v>46246.03161709652</v>
       </c>
       <c r="F372" t="n">
-        <v>6181.816431087668</v>
+        <v>34684.5237128224</v>
       </c>
       <c r="G372" t="n">
-        <v>10303.02738514611</v>
+        <v>57807.53952137067</v>
       </c>
     </row>
     <row r="373">
@@ -11244,13 +11244,13 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>5546.787070242184</v>
+        <v>31121.54328949263</v>
       </c>
       <c r="F373" t="n">
-        <v>4160.090302681639</v>
+        <v>23341.15746711948</v>
       </c>
       <c r="G373" t="n">
-        <v>6933.483837802731</v>
+        <v>38901.92911186579</v>
       </c>
     </row>
     <row r="374">
@@ -11273,13 +11273,13 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>43488.88748907444</v>
+        <v>111825.7283620982</v>
       </c>
       <c r="F374" t="n">
-        <v>32616.66561680584</v>
+        <v>83869.29627157365</v>
       </c>
       <c r="G374" t="n">
-        <v>54361.10936134306</v>
+        <v>139782.1604526227</v>
       </c>
     </row>
     <row r="375">
@@ -11302,13 +11302,13 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>26866.46827102821</v>
+        <v>69083.44996591844</v>
       </c>
       <c r="F375" t="n">
-        <v>20149.85120327116</v>
+        <v>51812.58747443883</v>
       </c>
       <c r="G375" t="n">
-        <v>33583.08533878527</v>
+        <v>86354.31245739806</v>
       </c>
     </row>
     <row r="376">
@@ -11331,13 +11331,13 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>14496.29582969148</v>
+        <v>37275.24278736607</v>
       </c>
       <c r="F376" t="n">
-        <v>10872.22187226861</v>
+        <v>27956.43209052455</v>
       </c>
       <c r="G376" t="n">
-        <v>18120.36978711435</v>
+        <v>46594.05348420759</v>
       </c>
     </row>
     <row r="377">
@@ -11360,13 +11360,13 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>9132.666372705635</v>
+        <v>23483.40295604062</v>
       </c>
       <c r="F377" t="n">
-        <v>6849.499779529226</v>
+        <v>17612.55221703047</v>
       </c>
       <c r="G377" t="n">
-        <v>11415.83296588204</v>
+        <v>29354.25369505078</v>
       </c>
     </row>
     <row r="378">
@@ -11389,13 +11389,13 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>7683.036789736487</v>
+        <v>19755.87867730402</v>
       </c>
       <c r="F378" t="n">
-        <v>5762.277592302365</v>
+        <v>14816.90900797801</v>
       </c>
       <c r="G378" t="n">
-        <v>9603.795987170606</v>
+        <v>24694.84834663002</v>
       </c>
     </row>
     <row r="379">
@@ -11418,13 +11418,13 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>5170.345512589963</v>
+        <v>13294.83659416056</v>
       </c>
       <c r="F379" t="n">
-        <v>3877.759134442472</v>
+        <v>9971.127445620423</v>
       </c>
       <c r="G379" t="n">
-        <v>6462.931890737453</v>
+        <v>16618.54574270071</v>
       </c>
     </row>
     <row r="380">
@@ -11447,13 +11447,13 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>49389.31281858461</v>
+        <v>298161.7539261833</v>
       </c>
       <c r="F380" t="n">
-        <v>37041.98461393846</v>
+        <v>223621.3154446375</v>
       </c>
       <c r="G380" t="n">
-        <v>61736.64102323077</v>
+        <v>372702.1924077292</v>
       </c>
     </row>
     <row r="381">
@@ -11476,13 +11476,13 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>30511.61991903672</v>
+        <v>184197.7057588421</v>
       </c>
       <c r="F381" t="n">
-        <v>22883.71493927754</v>
+        <v>138148.2793191316</v>
       </c>
       <c r="G381" t="n">
-        <v>38139.5248987959</v>
+        <v>230247.1321985527</v>
       </c>
     </row>
     <row r="382">
@@ -11505,13 +11505,13 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>16463.10427286154</v>
+        <v>99387.25130872778</v>
       </c>
       <c r="F382" t="n">
-        <v>12347.32820464615</v>
+        <v>74540.43848154582</v>
       </c>
       <c r="G382" t="n">
-        <v>20578.88034107692</v>
+        <v>124234.0641359097</v>
       </c>
     </row>
     <row r="383">
@@ -11534,13 +11534,13 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>10371.75569190277</v>
+        <v>62613.9683244985</v>
       </c>
       <c r="F383" t="n">
-        <v>7778.816768927077</v>
+        <v>46960.47624337387</v>
       </c>
       <c r="G383" t="n">
-        <v>12964.69461487846</v>
+        <v>78267.46040562312</v>
       </c>
     </row>
     <row r="384">
@@ -11563,13 +11563,13 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>8725.445264616616</v>
+        <v>52675.24319362572</v>
       </c>
       <c r="F384" t="n">
-        <v>6544.083948462461</v>
+        <v>39506.43239521929</v>
       </c>
       <c r="G384" t="n">
-        <v>10906.80658077077</v>
+        <v>65844.05399203215</v>
       </c>
     </row>
     <row r="385">
@@ -11592,13 +11592,13 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>5871.840523987282</v>
+        <v>35448.11963344624</v>
       </c>
       <c r="F385" t="n">
-        <v>4403.880392990462</v>
+        <v>26586.08972508468</v>
       </c>
       <c r="G385" t="n">
-        <v>7339.800654984102</v>
+        <v>44310.14954180779</v>
       </c>
     </row>
     <row r="386">
@@ -11621,13 +11621,13 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>49396.7337886895</v>
+        <v>227917.9983945955</v>
       </c>
       <c r="F386" t="n">
-        <v>37047.55034151713</v>
+        <v>170938.4987959467</v>
       </c>
       <c r="G386" t="n">
-        <v>61745.91723586187</v>
+        <v>284897.4979932444</v>
       </c>
     </row>
     <row r="387">
@@ -11650,13 +11650,13 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>30516.20442945707</v>
+        <v>140802.6745637724</v>
       </c>
       <c r="F387" t="n">
-        <v>22887.1533220928</v>
+        <v>105602.0059228293</v>
       </c>
       <c r="G387" t="n">
-        <v>38145.25553682134</v>
+        <v>176003.3432047155</v>
       </c>
     </row>
     <row r="388">
@@ -11679,13 +11679,13 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>16465.57792956317</v>
+        <v>75972.66613153186</v>
       </c>
       <c r="F388" t="n">
-        <v>12349.18344717237</v>
+        <v>56979.49959864889</v>
       </c>
       <c r="G388" t="n">
-        <v>20581.97241195396</v>
+        <v>94965.83266441482</v>
       </c>
     </row>
     <row r="389">
@@ -11708,13 +11708,13 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>10373.3140956248</v>
+        <v>47862.77966286508</v>
       </c>
       <c r="F389" t="n">
-        <v>7779.985571718596</v>
+        <v>35897.08474714881</v>
       </c>
       <c r="G389" t="n">
-        <v>12966.64261953099</v>
+        <v>59828.47457858134</v>
       </c>
     </row>
     <row r="390">
@@ -11737,13 +11737,13 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>8726.756302668478</v>
+        <v>40265.51304971189</v>
       </c>
       <c r="F390" t="n">
-        <v>6545.067227001358</v>
+        <v>30199.13478728391</v>
       </c>
       <c r="G390" t="n">
-        <v>10908.4453783356</v>
+        <v>50331.89131213986</v>
       </c>
     </row>
     <row r="391">
@@ -11766,13 +11766,13 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>5872.72279487753</v>
+        <v>27096.91758691303</v>
       </c>
       <c r="F391" t="n">
-        <v>4404.542096158148</v>
+        <v>20322.68819018477</v>
       </c>
       <c r="G391" t="n">
-        <v>7340.903493596911</v>
+        <v>33871.14698364129</v>
       </c>
     </row>
     <row r="392">
@@ -11795,13 +11795,13 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>49395.07981485825</v>
+        <v>153570.5198520373</v>
       </c>
       <c r="F392" t="n">
-        <v>37046.30986114369</v>
+        <v>115177.889889028</v>
       </c>
       <c r="G392" t="n">
-        <v>61743.84976857282</v>
+        <v>191963.1498150466</v>
       </c>
     </row>
     <row r="393">
@@ -11824,13 +11824,13 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>30515.1826411791</v>
+        <v>94872.45448636971</v>
       </c>
       <c r="F393" t="n">
-        <v>22886.38698088433</v>
+        <v>71154.34086477727</v>
       </c>
       <c r="G393" t="n">
-        <v>38143.97830147388</v>
+        <v>118590.5681079621</v>
       </c>
     </row>
     <row r="394">
@@ -11853,13 +11853,13 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>16465.02660495275</v>
+        <v>51190.17328401243</v>
       </c>
       <c r="F394" t="n">
-        <v>12348.76995371456</v>
+        <v>38392.62996300932</v>
       </c>
       <c r="G394" t="n">
-        <v>20581.28325619094</v>
+        <v>63987.71660501554</v>
       </c>
     </row>
     <row r="395">
@@ -11882,13 +11882,13 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>10372.96676112023</v>
+        <v>32249.80916892783</v>
       </c>
       <c r="F395" t="n">
-        <v>7779.725070840176</v>
+        <v>24187.35687669587</v>
       </c>
       <c r="G395" t="n">
-        <v>12966.20845140029</v>
+        <v>40312.26146115979</v>
       </c>
     </row>
     <row r="396">
@@ -11911,13 +11911,13 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>8726.464100624959</v>
+        <v>27130.79184052659</v>
       </c>
       <c r="F396" t="n">
-        <v>6544.848075468719</v>
+        <v>20348.09388039494</v>
       </c>
       <c r="G396" t="n">
-        <v>10908.0801257812</v>
+        <v>33913.48980065824</v>
       </c>
     </row>
     <row r="397">
@@ -11940,13 +11940,13 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>5872.526155766482</v>
+        <v>18257.82847129777</v>
       </c>
       <c r="F397" t="n">
-        <v>4404.394616824862</v>
+        <v>13693.37135347333</v>
       </c>
       <c r="G397" t="n">
-        <v>7340.657694708102</v>
+        <v>22822.28558912221</v>
       </c>
     </row>
     <row r="398">
@@ -11969,13 +11969,13 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>49396.52025061573</v>
+        <v>104455.3970238944</v>
       </c>
       <c r="F398" t="n">
-        <v>37047.3901879618</v>
+        <v>78341.54776792078</v>
       </c>
       <c r="G398" t="n">
-        <v>61745.65031326967</v>
+        <v>130569.246279868</v>
       </c>
     </row>
     <row r="399">
@@ -11998,13 +11998,13 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>30516.07251038039</v>
+        <v>64530.22305031698</v>
       </c>
       <c r="F399" t="n">
-        <v>22887.05438278529</v>
+        <v>48397.66728773774</v>
       </c>
       <c r="G399" t="n">
-        <v>38145.09063797548</v>
+        <v>80662.77881289623</v>
       </c>
     </row>
     <row r="400">
@@ -12027,13 +12027,13 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>16465.50675020524</v>
+        <v>34818.46567463146</v>
       </c>
       <c r="F400" t="n">
-        <v>12349.13006265393</v>
+        <v>26113.84925597359</v>
       </c>
       <c r="G400" t="n">
-        <v>20581.88343775655</v>
+        <v>43523.08209328933</v>
       </c>
     </row>
     <row r="401">
@@ -12056,13 +12056,13 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>10373.2692526293</v>
+        <v>21935.63337501782</v>
       </c>
       <c r="F401" t="n">
-        <v>7779.951939471977</v>
+        <v>16451.72503126337</v>
       </c>
       <c r="G401" t="n">
-        <v>12966.58656578663</v>
+        <v>27419.54171877227</v>
       </c>
     </row>
     <row r="402">
@@ -12085,13 +12085,13 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>8726.718577608779</v>
+        <v>18453.78680755467</v>
       </c>
       <c r="F402" t="n">
-        <v>6545.038933206584</v>
+        <v>13840.34010566601</v>
       </c>
       <c r="G402" t="n">
-        <v>10908.39822201097</v>
+        <v>23067.23350944334</v>
       </c>
     </row>
     <row r="403">
@@ -12114,13 +12114,13 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>5872.697407573202</v>
+        <v>12418.58609061856</v>
       </c>
       <c r="F403" t="n">
-        <v>4404.523055679903</v>
+        <v>9313.939567963916</v>
       </c>
       <c r="G403" t="n">
-        <v>7340.871759466504</v>
+        <v>15523.23261327319</v>
       </c>
     </row>
     <row r="404">
@@ -12143,13 +12143,13 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>49391.4832885759</v>
+        <v>84179.39280081581</v>
       </c>
       <c r="F404" t="n">
-        <v>37043.61246643192</v>
+        <v>63134.54460061186</v>
       </c>
       <c r="G404" t="n">
-        <v>61739.35411071987</v>
+        <v>105224.2410010198</v>
       </c>
     </row>
     <row r="405">
@@ -12172,13 +12172,13 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>30512.96078716466</v>
+        <v>52004.15821917065</v>
       </c>
       <c r="F405" t="n">
-        <v>22884.7205903735</v>
+        <v>39003.11866437799</v>
       </c>
       <c r="G405" t="n">
-        <v>38141.20098395584</v>
+        <v>65005.19777396332</v>
       </c>
     </row>
     <row r="406">
@@ -12201,13 +12201,13 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>16463.82776285863</v>
+        <v>28059.79760027194</v>
       </c>
       <c r="F406" t="n">
-        <v>12347.87082214397</v>
+        <v>21044.84820020395</v>
       </c>
       <c r="G406" t="n">
-        <v>20579.78470357329</v>
+        <v>35074.74700033992</v>
       </c>
     </row>
     <row r="407">
@@ -12230,13 +12230,13 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>10372.21149060094</v>
+        <v>17677.67248817132</v>
       </c>
       <c r="F407" t="n">
-        <v>7779.158617950704</v>
+        <v>13258.25436612849</v>
       </c>
       <c r="G407" t="n">
-        <v>12965.26436325117</v>
+        <v>22097.09061021415</v>
       </c>
     </row>
     <row r="408">
@@ -12259,13 +12259,13 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>8725.828714315076</v>
+        <v>14871.69272814413</v>
       </c>
       <c r="F408" t="n">
-        <v>6544.371535736307</v>
+        <v>11153.7695461081</v>
       </c>
       <c r="G408" t="n">
-        <v>10907.28589289384</v>
+        <v>18589.61591018016</v>
       </c>
     </row>
     <row r="409">
@@ -12288,13 +12288,13 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>5872.098568752912</v>
+        <v>10007.99447743032</v>
       </c>
       <c r="F409" t="n">
-        <v>4404.073926564684</v>
+        <v>7505.995858072743</v>
       </c>
       <c r="G409" t="n">
-        <v>7340.12321094114</v>
+        <v>12509.9930967879</v>
       </c>
     </row>
     <row r="410">
@@ -12317,13 +12317,13 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>46655.21834783145</v>
+        <v>253481.96811464</v>
       </c>
       <c r="F410" t="n">
-        <v>34991.41376087359</v>
+        <v>190111.47608598</v>
       </c>
       <c r="G410" t="n">
-        <v>58319.02293478932</v>
+        <v>316852.4601432999</v>
       </c>
     </row>
     <row r="411">
@@ -12346,13 +12346,13 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>28822.55711266032</v>
+        <v>156595.5269685998</v>
       </c>
       <c r="F411" t="n">
-        <v>21616.91783449524</v>
+        <v>117446.6452264499</v>
       </c>
       <c r="G411" t="n">
-        <v>36028.1963908254</v>
+        <v>195744.4087107498</v>
       </c>
     </row>
     <row r="412">
@@ -12375,13 +12375,13 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>15551.73944927715</v>
+        <v>84493.98937154668</v>
       </c>
       <c r="F412" t="n">
-        <v>11663.80458695786</v>
+        <v>63370.49202866</v>
       </c>
       <c r="G412" t="n">
-        <v>19439.67431159644</v>
+        <v>105617.4867144333</v>
       </c>
     </row>
     <row r="413">
@@ -12404,13 +12404,13 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>9797.595853044606</v>
+        <v>53231.2133040744</v>
       </c>
       <c r="F413" t="n">
-        <v>7348.196889783454</v>
+        <v>39923.4099780558</v>
       </c>
       <c r="G413" t="n">
-        <v>12246.99481630576</v>
+        <v>66539.016630093</v>
       </c>
     </row>
     <row r="414">
@@ -12433,13 +12433,13 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>8242.42190811689</v>
+        <v>44781.81436691973</v>
       </c>
       <c r="F414" t="n">
-        <v>6181.816431087668</v>
+        <v>33586.3607751898</v>
       </c>
       <c r="G414" t="n">
-        <v>10303.02738514611</v>
+        <v>55977.26795864967</v>
       </c>
     </row>
     <row r="415">
@@ -12462,13 +12462,13 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>5546.787070242184</v>
+        <v>30136.18954251831</v>
       </c>
       <c r="F415" t="n">
-        <v>4160.090302681639</v>
+        <v>22602.14215688873</v>
       </c>
       <c r="G415" t="n">
-        <v>6933.483837802731</v>
+        <v>37670.23692814788</v>
       </c>
     </row>
     <row r="416">
@@ -12491,13 +12491,13 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>43488.88748907444</v>
+        <v>111137.0399347542</v>
       </c>
       <c r="F416" t="n">
-        <v>32616.66561680584</v>
+        <v>83352.77995106562</v>
       </c>
       <c r="G416" t="n">
-        <v>54361.10936134306</v>
+        <v>138921.2999184427</v>
       </c>
     </row>
     <row r="417">
@@ -12520,13 +12520,13 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>26866.46827102821</v>
+        <v>68657.99355969256</v>
       </c>
       <c r="F417" t="n">
-        <v>20149.85120327116</v>
+        <v>51493.49516976942</v>
       </c>
       <c r="G417" t="n">
-        <v>33583.08533878527</v>
+        <v>85822.49194961571</v>
       </c>
     </row>
     <row r="418">
@@ -12549,13 +12549,13 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>14496.29582969148</v>
+        <v>37045.67997825138</v>
       </c>
       <c r="F418" t="n">
-        <v>10872.22187226861</v>
+        <v>27784.25998368854</v>
       </c>
       <c r="G418" t="n">
-        <v>18120.36978711435</v>
+        <v>46307.09997281423</v>
       </c>
     </row>
     <row r="419">
@@ -12578,13 +12578,13 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>9132.666372705635</v>
+        <v>23338.77838629837</v>
       </c>
       <c r="F419" t="n">
-        <v>6849.499779529226</v>
+        <v>17504.08378972378</v>
       </c>
       <c r="G419" t="n">
-        <v>11415.83296588204</v>
+        <v>29173.47298287297</v>
       </c>
     </row>
     <row r="420">
@@ -12607,13 +12607,13 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>7683.036789736487</v>
+        <v>19634.21038847324</v>
       </c>
       <c r="F420" t="n">
-        <v>5762.277592302365</v>
+        <v>14725.65779135493</v>
       </c>
       <c r="G420" t="n">
-        <v>9603.795987170606</v>
+        <v>24542.76298559154</v>
       </c>
     </row>
     <row r="421">
@@ -12636,13 +12636,13 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>5170.345512589963</v>
+        <v>13212.95919224299</v>
       </c>
       <c r="F421" t="n">
-        <v>3877.759134442472</v>
+        <v>9909.719394182246</v>
       </c>
       <c r="G421" t="n">
-        <v>6462.931890737453</v>
+        <v>16516.19899030374</v>
       </c>
     </row>
   </sheetData>
